--- a/artfynd/A 18040-2021.xlsx
+++ b/artfynd/A 18040-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY45"/>
+  <dimension ref="A1:AY107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5733,6 +5733,6619 @@
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>112254051</v>
+      </c>
+      <c r="B46" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>553333</v>
+      </c>
+      <c r="R46" t="n">
+        <v>6704858</v>
+      </c>
+      <c r="S46" t="n">
+        <v>15</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>112254040</v>
+      </c>
+      <c r="B47" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>553358</v>
+      </c>
+      <c r="R47" t="n">
+        <v>6704817</v>
+      </c>
+      <c r="S47" t="n">
+        <v>15</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>112254003</v>
+      </c>
+      <c r="B48" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>553494</v>
+      </c>
+      <c r="R48" t="n">
+        <v>6705007</v>
+      </c>
+      <c r="S48" t="n">
+        <v>15</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>112253996</v>
+      </c>
+      <c r="B49" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>553511</v>
+      </c>
+      <c r="R49" t="n">
+        <v>6705107</v>
+      </c>
+      <c r="S49" t="n">
+        <v>15</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX49" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>112254007</v>
+      </c>
+      <c r="B50" t="n">
+        <v>90678</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>553484</v>
+      </c>
+      <c r="R50" t="n">
+        <v>6705509</v>
+      </c>
+      <c r="S50" t="n">
+        <v>15</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="inlineStr"/>
+      <c r="AW50" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>112254004</v>
+      </c>
+      <c r="B51" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>553496</v>
+      </c>
+      <c r="R51" t="n">
+        <v>6705263</v>
+      </c>
+      <c r="S51" t="n">
+        <v>15</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT51" t="inlineStr"/>
+      <c r="AW51" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX51" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>112254046</v>
+      </c>
+      <c r="B52" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>553347</v>
+      </c>
+      <c r="R52" t="n">
+        <v>6704930</v>
+      </c>
+      <c r="S52" t="n">
+        <v>15</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX52" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>112254037</v>
+      </c>
+      <c r="B53" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>553386</v>
+      </c>
+      <c r="R53" t="n">
+        <v>6704753</v>
+      </c>
+      <c r="S53" t="n">
+        <v>15</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX53" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>112253998</v>
+      </c>
+      <c r="B54" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>553506</v>
+      </c>
+      <c r="R54" t="n">
+        <v>6705290</v>
+      </c>
+      <c r="S54" t="n">
+        <v>15</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>112254014</v>
+      </c>
+      <c r="B55" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>553479</v>
+      </c>
+      <c r="R55" t="n">
+        <v>6705174</v>
+      </c>
+      <c r="S55" t="n">
+        <v>15</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>112254039</v>
+      </c>
+      <c r="B56" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>553361</v>
+      </c>
+      <c r="R56" t="n">
+        <v>6704802</v>
+      </c>
+      <c r="S56" t="n">
+        <v>15</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX56" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>112254006</v>
+      </c>
+      <c r="B57" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>553489</v>
+      </c>
+      <c r="R57" t="n">
+        <v>6704972</v>
+      </c>
+      <c r="S57" t="n">
+        <v>15</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="inlineStr"/>
+      <c r="AG57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT57" t="inlineStr"/>
+      <c r="AW57" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX57" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>112254020</v>
+      </c>
+      <c r="B58" t="n">
+        <v>89745</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>2062</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Ulltickeporing</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Skeletocutis brevispora</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>553455</v>
+      </c>
+      <c r="R58" t="n">
+        <v>6705497</v>
+      </c>
+      <c r="S58" t="n">
+        <v>15</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF58" t="inlineStr"/>
+      <c r="AG58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT58" t="inlineStr"/>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX58" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>112254005</v>
+      </c>
+      <c r="B59" t="n">
+        <v>89369</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>553494</v>
+      </c>
+      <c r="R59" t="n">
+        <v>6705017</v>
+      </c>
+      <c r="S59" t="n">
+        <v>15</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT59" t="inlineStr"/>
+      <c r="AW59" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX59" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>112253980</v>
+      </c>
+      <c r="B60" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>553540</v>
+      </c>
+      <c r="R60" t="n">
+        <v>6705286</v>
+      </c>
+      <c r="S60" t="n">
+        <v>15</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT60" t="inlineStr"/>
+      <c r="AW60" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX60" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>112254032</v>
+      </c>
+      <c r="B61" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>553397</v>
+      </c>
+      <c r="R61" t="n">
+        <v>6705068</v>
+      </c>
+      <c r="S61" t="n">
+        <v>15</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT61" t="inlineStr"/>
+      <c r="AW61" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX61" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>112254023</v>
+      </c>
+      <c r="B62" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>553449</v>
+      </c>
+      <c r="R62" t="n">
+        <v>6705492</v>
+      </c>
+      <c r="S62" t="n">
+        <v>15</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT62" t="inlineStr"/>
+      <c r="AW62" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX62" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>112254049</v>
+      </c>
+      <c r="B63" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>553333</v>
+      </c>
+      <c r="R63" t="n">
+        <v>6704880</v>
+      </c>
+      <c r="S63" t="n">
+        <v>15</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT63" t="inlineStr"/>
+      <c r="AW63" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX63" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>112253977</v>
+      </c>
+      <c r="B64" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>553575</v>
+      </c>
+      <c r="R64" t="n">
+        <v>6705296</v>
+      </c>
+      <c r="S64" t="n">
+        <v>15</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF64" t="inlineStr"/>
+      <c r="AG64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT64" t="inlineStr"/>
+      <c r="AW64" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX64" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>112253993</v>
+      </c>
+      <c r="B65" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>553514</v>
+      </c>
+      <c r="R65" t="n">
+        <v>6705442</v>
+      </c>
+      <c r="S65" t="n">
+        <v>15</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
+      <c r="AD65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT65" t="inlineStr"/>
+      <c r="AW65" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX65" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>112253983</v>
+      </c>
+      <c r="B66" t="n">
+        <v>89845</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>553540</v>
+      </c>
+      <c r="R66" t="n">
+        <v>6705286</v>
+      </c>
+      <c r="S66" t="n">
+        <v>15</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT66" t="inlineStr"/>
+      <c r="AW66" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX66" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>112254009</v>
+      </c>
+      <c r="B67" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>553483</v>
+      </c>
+      <c r="R67" t="n">
+        <v>6704957</v>
+      </c>
+      <c r="S67" t="n">
+        <v>15</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF67" t="inlineStr"/>
+      <c r="AG67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT67" t="inlineStr"/>
+      <c r="AW67" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX67" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>112253999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>553502</v>
+      </c>
+      <c r="R68" t="n">
+        <v>6704909</v>
+      </c>
+      <c r="S68" t="n">
+        <v>15</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
+      <c r="AD68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT68" t="inlineStr"/>
+      <c r="AW68" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX68" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>112254041</v>
+      </c>
+      <c r="B69" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>553358</v>
+      </c>
+      <c r="R69" t="n">
+        <v>6704825</v>
+      </c>
+      <c r="S69" t="n">
+        <v>15</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF69" t="inlineStr"/>
+      <c r="AG69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT69" t="inlineStr"/>
+      <c r="AW69" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX69" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>112253994</v>
+      </c>
+      <c r="B70" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>553513</v>
+      </c>
+      <c r="R70" t="n">
+        <v>6705290</v>
+      </c>
+      <c r="S70" t="n">
+        <v>15</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT70" t="inlineStr"/>
+      <c r="AW70" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX70" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>112254043</v>
+      </c>
+      <c r="B71" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>553352</v>
+      </c>
+      <c r="R71" t="n">
+        <v>6704852</v>
+      </c>
+      <c r="S71" t="n">
+        <v>15</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT71" t="inlineStr"/>
+      <c r="AW71" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX71" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>112253991</v>
+      </c>
+      <c r="B72" t="n">
+        <v>8377</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>106545</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Tomicus minor</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>553522</v>
+      </c>
+      <c r="R72" t="n">
+        <v>6705362</v>
+      </c>
+      <c r="S72" t="n">
+        <v>15</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT72" t="inlineStr"/>
+      <c r="AW72" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX72" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>112254001</v>
+      </c>
+      <c r="B73" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>553497</v>
+      </c>
+      <c r="R73" t="n">
+        <v>6705035</v>
+      </c>
+      <c r="S73" t="n">
+        <v>15</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT73" t="inlineStr"/>
+      <c r="AW73" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX73" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>112254010</v>
+      </c>
+      <c r="B74" t="n">
+        <v>88924</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>256703</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Tallfingersvamp</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Ramaria eosanguinea</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>R.H.Petersen</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>553481</v>
+      </c>
+      <c r="R74" t="n">
+        <v>6705395</v>
+      </c>
+      <c r="S74" t="n">
+        <v>15</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT74" t="inlineStr"/>
+      <c r="AW74" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX74" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>112254028</v>
+      </c>
+      <c r="B75" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>553418</v>
+      </c>
+      <c r="R75" t="n">
+        <v>6705049</v>
+      </c>
+      <c r="S75" t="n">
+        <v>15</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT75" t="inlineStr"/>
+      <c r="AW75" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX75" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>112254048</v>
+      </c>
+      <c r="B76" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>553339</v>
+      </c>
+      <c r="R76" t="n">
+        <v>6705001</v>
+      </c>
+      <c r="S76" t="n">
+        <v>15</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT76" t="inlineStr"/>
+      <c r="AW76" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX76" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>112253986</v>
+      </c>
+      <c r="B77" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>553531</v>
+      </c>
+      <c r="R77" t="n">
+        <v>6705311</v>
+      </c>
+      <c r="S77" t="n">
+        <v>15</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF77" t="inlineStr"/>
+      <c r="AG77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT77" t="inlineStr"/>
+      <c r="AW77" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX77" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>112254011</v>
+      </c>
+      <c r="B78" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>553479</v>
+      </c>
+      <c r="R78" t="n">
+        <v>6704917</v>
+      </c>
+      <c r="S78" t="n">
+        <v>15</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT78" t="inlineStr"/>
+      <c r="AW78" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX78" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>112254027</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5113</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>100526</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Bronshjon</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Callidium coriaceum</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>553423</v>
+      </c>
+      <c r="R79" t="n">
+        <v>6704779</v>
+      </c>
+      <c r="S79" t="n">
+        <v>15</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF79" t="inlineStr"/>
+      <c r="AG79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT79" t="inlineStr"/>
+      <c r="AW79" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX79" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>112254029</v>
+      </c>
+      <c r="B80" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>553417</v>
+      </c>
+      <c r="R80" t="n">
+        <v>6704775</v>
+      </c>
+      <c r="S80" t="n">
+        <v>15</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT80" t="inlineStr"/>
+      <c r="AW80" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX80" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>112254015</v>
+      </c>
+      <c r="B81" t="n">
+        <v>5135</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>105930</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Semanotus undatus</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>553476</v>
+      </c>
+      <c r="R81" t="n">
+        <v>6704913</v>
+      </c>
+      <c r="S81" t="n">
+        <v>15</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF81" t="inlineStr"/>
+      <c r="AG81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT81" t="inlineStr"/>
+      <c r="AW81" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX81" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>112249635</v>
+      </c>
+      <c r="B82" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>553482</v>
+      </c>
+      <c r="R82" t="n">
+        <v>6705517</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>15:16</t>
+        </is>
+      </c>
+      <c r="AA82" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>15:16</t>
+        </is>
+      </c>
+      <c r="AC82" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
+      <c r="AD82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT82" t="inlineStr"/>
+      <c r="AW82" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AX82" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AY82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>112254022</v>
+      </c>
+      <c r="B83" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>553450</v>
+      </c>
+      <c r="R83" t="n">
+        <v>6705147</v>
+      </c>
+      <c r="S83" t="n">
+        <v>15</v>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA83" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF83" t="inlineStr"/>
+      <c r="AG83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT83" t="inlineStr"/>
+      <c r="AW83" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX83" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>112253987</v>
+      </c>
+      <c r="B84" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>553525</v>
+      </c>
+      <c r="R84" t="n">
+        <v>6705418</v>
+      </c>
+      <c r="S84" t="n">
+        <v>15</v>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA84" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT84" t="inlineStr"/>
+      <c r="AW84" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX84" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>112254025</v>
+      </c>
+      <c r="B85" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>553447</v>
+      </c>
+      <c r="R85" t="n">
+        <v>6704809</v>
+      </c>
+      <c r="S85" t="n">
+        <v>15</v>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA85" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT85" t="inlineStr"/>
+      <c r="AW85" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX85" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>112254008</v>
+      </c>
+      <c r="B86" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>553485</v>
+      </c>
+      <c r="R86" t="n">
+        <v>6704932</v>
+      </c>
+      <c r="S86" t="n">
+        <v>15</v>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA86" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT86" t="inlineStr"/>
+      <c r="AW86" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX86" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>112253995</v>
+      </c>
+      <c r="B87" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>553512</v>
+      </c>
+      <c r="R87" t="n">
+        <v>6705338</v>
+      </c>
+      <c r="S87" t="n">
+        <v>15</v>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA87" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF87" t="inlineStr"/>
+      <c r="AG87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT87" t="inlineStr"/>
+      <c r="AW87" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX87" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>112253990</v>
+      </c>
+      <c r="B88" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr"/>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>553523</v>
+      </c>
+      <c r="R88" t="n">
+        <v>6705360</v>
+      </c>
+      <c r="S88" t="n">
+        <v>15</v>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA88" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AC88" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
+      <c r="AD88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT88" t="inlineStr"/>
+      <c r="AW88" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX88" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>112254021</v>
+      </c>
+      <c r="B89" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>553450</v>
+      </c>
+      <c r="R89" t="n">
+        <v>6705143</v>
+      </c>
+      <c r="S89" t="n">
+        <v>15</v>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA89" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF89" t="inlineStr"/>
+      <c r="AG89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT89" t="inlineStr"/>
+      <c r="AW89" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX89" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>112253992</v>
+      </c>
+      <c r="B90" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>553517</v>
+      </c>
+      <c r="R90" t="n">
+        <v>6705425</v>
+      </c>
+      <c r="S90" t="n">
+        <v>15</v>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA90" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF90" t="inlineStr"/>
+      <c r="AG90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT90" t="inlineStr"/>
+      <c r="AW90" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX90" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>112254000</v>
+      </c>
+      <c r="B91" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr"/>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>553499</v>
+      </c>
+      <c r="R91" t="n">
+        <v>6705052</v>
+      </c>
+      <c r="S91" t="n">
+        <v>15</v>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA91" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AC91" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
+      <c r="AD91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT91" t="inlineStr"/>
+      <c r="AW91" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX91" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>112254047</v>
+      </c>
+      <c r="B92" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>553343</v>
+      </c>
+      <c r="R92" t="n">
+        <v>6704939</v>
+      </c>
+      <c r="S92" t="n">
+        <v>15</v>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA92" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT92" t="inlineStr"/>
+      <c r="AW92" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX92" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>112254035</v>
+      </c>
+      <c r="B93" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>553389</v>
+      </c>
+      <c r="R93" t="n">
+        <v>6704754</v>
+      </c>
+      <c r="S93" t="n">
+        <v>15</v>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA93" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT93" t="inlineStr"/>
+      <c r="AW93" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX93" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>112253978</v>
+      </c>
+      <c r="B94" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>553546</v>
+      </c>
+      <c r="R94" t="n">
+        <v>6705297</v>
+      </c>
+      <c r="S94" t="n">
+        <v>15</v>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA94" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT94" t="inlineStr"/>
+      <c r="AW94" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX94" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>112254052</v>
+      </c>
+      <c r="B95" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>553330</v>
+      </c>
+      <c r="R95" t="n">
+        <v>6704878</v>
+      </c>
+      <c r="S95" t="n">
+        <v>15</v>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA95" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF95" t="inlineStr"/>
+      <c r="AG95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT95" t="inlineStr"/>
+      <c r="AW95" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX95" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>112253988</v>
+      </c>
+      <c r="B96" t="n">
+        <v>89845</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>553525</v>
+      </c>
+      <c r="R96" t="n">
+        <v>6705427</v>
+      </c>
+      <c r="S96" t="n">
+        <v>15</v>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA96" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT96" t="inlineStr"/>
+      <c r="AW96" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX96" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>112254013</v>
+      </c>
+      <c r="B97" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>553479</v>
+      </c>
+      <c r="R97" t="n">
+        <v>6705228</v>
+      </c>
+      <c r="S97" t="n">
+        <v>15</v>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA97" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT97" t="inlineStr"/>
+      <c r="AW97" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX97" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>112254031</v>
+      </c>
+      <c r="B98" t="n">
+        <v>5135</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>105930</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Semanotus undatus</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr"/>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>553400</v>
+      </c>
+      <c r="R98" t="n">
+        <v>6704775</v>
+      </c>
+      <c r="S98" t="n">
+        <v>15</v>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA98" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD98" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE98" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF98" t="inlineStr"/>
+      <c r="AG98" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT98" t="inlineStr"/>
+      <c r="AW98" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX98" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>112254012</v>
+      </c>
+      <c r="B99" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>553479</v>
+      </c>
+      <c r="R99" t="n">
+        <v>6705223</v>
+      </c>
+      <c r="S99" t="n">
+        <v>15</v>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y99" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA99" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD99" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE99" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG99" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT99" t="inlineStr"/>
+      <c r="AW99" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX99" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>112254045</v>
+      </c>
+      <c r="B100" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>553351</v>
+      </c>
+      <c r="R100" t="n">
+        <v>6704833</v>
+      </c>
+      <c r="S100" t="n">
+        <v>15</v>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y100" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA100" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD100" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE100" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG100" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT100" t="inlineStr"/>
+      <c r="AW100" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX100" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>112254002</v>
+      </c>
+      <c r="B101" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>553497</v>
+      </c>
+      <c r="R101" t="n">
+        <v>6705280</v>
+      </c>
+      <c r="S101" t="n">
+        <v>15</v>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y101" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA101" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD101" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE101" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG101" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT101" t="inlineStr"/>
+      <c r="AW101" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX101" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>112254016</v>
+      </c>
+      <c r="B102" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>553476</v>
+      </c>
+      <c r="R102" t="n">
+        <v>6704913</v>
+      </c>
+      <c r="S102" t="n">
+        <v>15</v>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y102" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA102" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD102" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE102" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG102" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT102" t="inlineStr"/>
+      <c r="AW102" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX102" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>112254044</v>
+      </c>
+      <c r="B103" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>553351</v>
+      </c>
+      <c r="R103" t="n">
+        <v>6704849</v>
+      </c>
+      <c r="S103" t="n">
+        <v>15</v>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y103" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA103" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD103" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE103" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF103" t="inlineStr"/>
+      <c r="AG103" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT103" t="inlineStr"/>
+      <c r="AW103" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX103" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>112254026</v>
+      </c>
+      <c r="B104" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>553439</v>
+      </c>
+      <c r="R104" t="n">
+        <v>6705097</v>
+      </c>
+      <c r="S104" t="n">
+        <v>15</v>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y104" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA104" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT104" t="inlineStr"/>
+      <c r="AW104" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX104" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>112253981</v>
+      </c>
+      <c r="B105" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>553541</v>
+      </c>
+      <c r="R105" t="n">
+        <v>6705249</v>
+      </c>
+      <c r="S105" t="n">
+        <v>15</v>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y105" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA105" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT105" t="inlineStr"/>
+      <c r="AW105" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX105" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>112253985</v>
+      </c>
+      <c r="B106" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>553531</v>
+      </c>
+      <c r="R106" t="n">
+        <v>6705240</v>
+      </c>
+      <c r="S106" t="n">
+        <v>15</v>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y106" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA106" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF106" t="inlineStr"/>
+      <c r="AG106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT106" t="inlineStr"/>
+      <c r="AW106" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX106" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>112254019</v>
+      </c>
+      <c r="B107" t="n">
+        <v>88924</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>256703</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Tallfingersvamp</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Ramaria eosanguinea</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>R.H.Petersen</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>553459</v>
+      </c>
+      <c r="R107" t="n">
+        <v>6705387</v>
+      </c>
+      <c r="S107" t="n">
+        <v>15</v>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA107" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF107" t="inlineStr"/>
+      <c r="AG107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT107" t="inlineStr"/>
+      <c r="AW107" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX107" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY107" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 18040-2021.xlsx
+++ b/artfynd/A 18040-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY107"/>
+  <dimension ref="A1:AY121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5735,10 +5735,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112254051</v>
+        <v>112254052</v>
       </c>
       <c r="B46" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5768,17 +5768,29 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>553333</v>
+        <v>553330</v>
       </c>
       <c r="R46" t="n">
-        <v>6704858</v>
+        <v>6704878</v>
       </c>
       <c r="S46" t="n">
         <v>15</v>
@@ -5819,6 +5831,7 @@
       <c r="AE46" t="b">
         <v>0</v>
       </c>
+      <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="b">
         <v>0</v>
       </c>
@@ -5837,10 +5850,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112254040</v>
+        <v>112254003</v>
       </c>
       <c r="B47" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5870,29 +5883,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>553358</v>
+        <v>553494</v>
       </c>
       <c r="R47" t="n">
-        <v>6704817</v>
+        <v>6705007</v>
       </c>
       <c r="S47" t="n">
         <v>15</v>
@@ -5933,7 +5934,6 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
-      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -5952,10 +5952,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112254003</v>
+        <v>112254016</v>
       </c>
       <c r="B48" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5992,10 +5992,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>553494</v>
+        <v>553476</v>
       </c>
       <c r="R48" t="n">
-        <v>6705007</v>
+        <v>6704913</v>
       </c>
       <c r="S48" t="n">
         <v>15</v>
@@ -6054,10 +6054,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112253996</v>
+        <v>112254010</v>
       </c>
       <c r="B49" t="n">
-        <v>96348</v>
+        <v>89058</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6066,25 +6066,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>220787</v>
+        <v>256703</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6094,10 +6094,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>553511</v>
+        <v>553481</v>
       </c>
       <c r="R49" t="n">
-        <v>6705107</v>
+        <v>6705395</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -6156,10 +6156,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112254007</v>
+        <v>112253999</v>
       </c>
       <c r="B50" t="n">
-        <v>90678</v>
+        <v>56430</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6168,38 +6168,46 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4366</v>
+        <v>100109</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>553484</v>
+        <v>553502</v>
       </c>
       <c r="R50" t="n">
-        <v>6705509</v>
+        <v>6704909</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -6232,6 +6240,11 @@
       <c r="AA50" t="inlineStr">
         <is>
           <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6258,10 +6271,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112254004</v>
+        <v>112254046</v>
       </c>
       <c r="B51" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6298,10 +6311,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>553496</v>
+        <v>553347</v>
       </c>
       <c r="R51" t="n">
-        <v>6705263</v>
+        <v>6704930</v>
       </c>
       <c r="S51" t="n">
         <v>15</v>
@@ -6360,10 +6373,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112254046</v>
+        <v>112254035</v>
       </c>
       <c r="B52" t="n">
-        <v>96348</v>
+        <v>89539</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6372,25 +6385,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6400,10 +6413,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>553347</v>
+        <v>553389</v>
       </c>
       <c r="R52" t="n">
-        <v>6704930</v>
+        <v>6704754</v>
       </c>
       <c r="S52" t="n">
         <v>15</v>
@@ -6462,10 +6475,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112254037</v>
+        <v>112254011</v>
       </c>
       <c r="B53" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6502,10 +6515,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>553386</v>
+        <v>553479</v>
       </c>
       <c r="R53" t="n">
-        <v>6704753</v>
+        <v>6704917</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -6564,10 +6577,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112253998</v>
+        <v>112253990</v>
       </c>
       <c r="B54" t="n">
-        <v>96348</v>
+        <v>56430</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6576,38 +6589,46 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>553506</v>
+        <v>553523</v>
       </c>
       <c r="R54" t="n">
-        <v>6705290</v>
+        <v>6705360</v>
       </c>
       <c r="S54" t="n">
         <v>15</v>
@@ -6640,6 +6661,11 @@
       <c r="AA54" t="inlineStr">
         <is>
           <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6666,10 +6692,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112254014</v>
+        <v>112253996</v>
       </c>
       <c r="B55" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6706,10 +6732,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>553479</v>
+        <v>553511</v>
       </c>
       <c r="R55" t="n">
-        <v>6705174</v>
+        <v>6705107</v>
       </c>
       <c r="S55" t="n">
         <v>15</v>
@@ -6768,10 +6794,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112254039</v>
+        <v>112253986</v>
       </c>
       <c r="B56" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6801,17 +6827,29 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>553361</v>
+        <v>553531</v>
       </c>
       <c r="R56" t="n">
-        <v>6704802</v>
+        <v>6705311</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -6852,6 +6890,7 @@
       <c r="AE56" t="b">
         <v>0</v>
       </c>
+      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
@@ -6870,10 +6909,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112254006</v>
+        <v>112253995</v>
       </c>
       <c r="B57" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6922,10 +6961,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>553489</v>
+        <v>553512</v>
       </c>
       <c r="R57" t="n">
-        <v>6704972</v>
+        <v>6705338</v>
       </c>
       <c r="S57" t="n">
         <v>15</v>
@@ -6985,10 +7024,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112254020</v>
+        <v>112254015</v>
       </c>
       <c r="B58" t="n">
-        <v>89745</v>
+        <v>5135</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6997,38 +7036,47 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2062</v>
+        <v>105930</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>553455</v>
+        <v>553476</v>
       </c>
       <c r="R58" t="n">
-        <v>6705497</v>
+        <v>6704913</v>
       </c>
       <c r="S58" t="n">
         <v>15</v>
@@ -7088,10 +7136,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112254005</v>
+        <v>112253988</v>
       </c>
       <c r="B59" t="n">
-        <v>89369</v>
+        <v>89979</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7100,25 +7148,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5447</v>
+        <v>1209</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7128,10 +7176,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>553494</v>
+        <v>553525</v>
       </c>
       <c r="R59" t="n">
-        <v>6705017</v>
+        <v>6705427</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7190,10 +7238,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112253980</v>
+        <v>112253978</v>
       </c>
       <c r="B60" t="n">
-        <v>89405</v>
+        <v>89539</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7230,10 +7278,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>553540</v>
+        <v>553546</v>
       </c>
       <c r="R60" t="n">
-        <v>6705286</v>
+        <v>6705297</v>
       </c>
       <c r="S60" t="n">
         <v>15</v>
@@ -7292,10 +7340,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112254032</v>
+        <v>112254045</v>
       </c>
       <c r="B61" t="n">
-        <v>89405</v>
+        <v>96720</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7304,25 +7352,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7332,10 +7380,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>553397</v>
+        <v>553351</v>
       </c>
       <c r="R61" t="n">
-        <v>6705068</v>
+        <v>6704833</v>
       </c>
       <c r="S61" t="n">
         <v>15</v>
@@ -7394,10 +7442,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112254023</v>
+        <v>112253993</v>
       </c>
       <c r="B62" t="n">
-        <v>89405</v>
+        <v>56430</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7410,34 +7458,42 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>553449</v>
+        <v>553514</v>
       </c>
       <c r="R62" t="n">
-        <v>6705492</v>
+        <v>6705442</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>
@@ -7470,6 +7526,11 @@
       <c r="AA62" t="inlineStr">
         <is>
           <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7496,10 +7557,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112254049</v>
+        <v>112254007</v>
       </c>
       <c r="B63" t="n">
-        <v>96348</v>
+        <v>90812</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7508,25 +7569,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>220787</v>
+        <v>4366</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7536,10 +7597,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>553333</v>
+        <v>553484</v>
       </c>
       <c r="R63" t="n">
-        <v>6704880</v>
+        <v>6705509</v>
       </c>
       <c r="S63" t="n">
         <v>15</v>
@@ -7598,10 +7659,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112253977</v>
+        <v>112254026</v>
       </c>
       <c r="B64" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7632,24 +7693,16 @@
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>553575</v>
+        <v>553439</v>
       </c>
       <c r="R64" t="n">
-        <v>6705296</v>
+        <v>6705097</v>
       </c>
       <c r="S64" t="n">
         <v>15</v>
@@ -7690,7 +7743,6 @@
       <c r="AE64" t="b">
         <v>0</v>
       </c>
-      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
       </c>
@@ -7709,10 +7761,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>112253993</v>
+        <v>112253977</v>
       </c>
       <c r="B65" t="n">
-        <v>56398</v>
+        <v>96720</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7721,35 +7773,35 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -7757,10 +7809,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>553514</v>
+        <v>553575</v>
       </c>
       <c r="R65" t="n">
-        <v>6705442</v>
+        <v>6705296</v>
       </c>
       <c r="S65" t="n">
         <v>15</v>
@@ -7795,17 +7847,13 @@
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="AC65" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD65" t="b">
         <v>0</v>
       </c>
       <c r="AE65" t="b">
         <v>0</v>
       </c>
+      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
       </c>
@@ -7824,10 +7872,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112253983</v>
+        <v>112254021</v>
       </c>
       <c r="B66" t="n">
-        <v>89845</v>
+        <v>96720</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7840,34 +7888,50 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>553540</v>
+        <v>553450</v>
       </c>
       <c r="R66" t="n">
-        <v>6705286</v>
+        <v>6705143</v>
       </c>
       <c r="S66" t="n">
         <v>15</v>
@@ -7908,6 +7972,7 @@
       <c r="AE66" t="b">
         <v>0</v>
       </c>
+      <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="b">
         <v>0</v>
       </c>
@@ -7926,10 +7991,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112254009</v>
+        <v>112254032</v>
       </c>
       <c r="B67" t="n">
-        <v>96348</v>
+        <v>89539</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7938,50 +8003,38 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>553483</v>
+        <v>553397</v>
       </c>
       <c r="R67" t="n">
-        <v>6704957</v>
+        <v>6705068</v>
       </c>
       <c r="S67" t="n">
         <v>15</v>
@@ -8022,7 +8075,6 @@
       <c r="AE67" t="b">
         <v>0</v>
       </c>
-      <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="b">
         <v>0</v>
       </c>
@@ -8041,10 +8093,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>112253999</v>
+        <v>112254009</v>
       </c>
       <c r="B68" t="n">
-        <v>56398</v>
+        <v>96720</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8053,35 +8105,39 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
@@ -8089,10 +8145,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>553502</v>
+        <v>553483</v>
       </c>
       <c r="R68" t="n">
-        <v>6704909</v>
+        <v>6704957</v>
       </c>
       <c r="S68" t="n">
         <v>15</v>
@@ -8127,17 +8183,13 @@
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="AC68" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD68" t="b">
         <v>0</v>
       </c>
       <c r="AE68" t="b">
         <v>0</v>
       </c>
+      <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
       </c>
@@ -8156,10 +8208,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>112254041</v>
+        <v>112254049</v>
       </c>
       <c r="B69" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8189,29 +8241,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>553358</v>
+        <v>553333</v>
       </c>
       <c r="R69" t="n">
-        <v>6704825</v>
+        <v>6704880</v>
       </c>
       <c r="S69" t="n">
         <v>15</v>
@@ -8252,7 +8292,6 @@
       <c r="AE69" t="b">
         <v>0</v>
       </c>
-      <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="b">
         <v>0</v>
       </c>
@@ -8271,10 +8310,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>112253994</v>
+        <v>112254025</v>
       </c>
       <c r="B70" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8311,10 +8350,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>553513</v>
+        <v>553447</v>
       </c>
       <c r="R70" t="n">
-        <v>6705290</v>
+        <v>6704809</v>
       </c>
       <c r="S70" t="n">
         <v>15</v>
@@ -8373,10 +8412,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112254043</v>
+        <v>112254008</v>
       </c>
       <c r="B71" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8413,10 +8452,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>553352</v>
+        <v>553485</v>
       </c>
       <c r="R71" t="n">
-        <v>6704852</v>
+        <v>6704932</v>
       </c>
       <c r="S71" t="n">
         <v>15</v>
@@ -8475,10 +8514,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112253991</v>
+        <v>112254031</v>
       </c>
       <c r="B72" t="n">
-        <v>8377</v>
+        <v>5135</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8491,34 +8530,43 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>106545</v>
+        <v>105930</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>553522</v>
+        <v>553400</v>
       </c>
       <c r="R72" t="n">
-        <v>6705362</v>
+        <v>6704775</v>
       </c>
       <c r="S72" t="n">
         <v>15</v>
@@ -8559,6 +8607,7 @@
       <c r="AE72" t="b">
         <v>0</v>
       </c>
+      <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="b">
         <v>0</v>
       </c>
@@ -8577,10 +8626,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>112254001</v>
+        <v>112254002</v>
       </c>
       <c r="B73" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8620,7 +8669,7 @@
         <v>553497</v>
       </c>
       <c r="R73" t="n">
-        <v>6705035</v>
+        <v>6705280</v>
       </c>
       <c r="S73" t="n">
         <v>15</v>
@@ -8679,10 +8728,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>112254010</v>
+        <v>112254027</v>
       </c>
       <c r="B74" t="n">
-        <v>88924</v>
+        <v>5113</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8695,34 +8744,43 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>256703</v>
+        <v>100526</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>553481</v>
+        <v>553423</v>
       </c>
       <c r="R74" t="n">
-        <v>6705395</v>
+        <v>6704779</v>
       </c>
       <c r="S74" t="n">
         <v>15</v>
@@ -8763,6 +8821,7 @@
       <c r="AE74" t="b">
         <v>0</v>
       </c>
+      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
       </c>
@@ -8781,10 +8840,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112254028</v>
+        <v>112254037</v>
       </c>
       <c r="B75" t="n">
-        <v>89405</v>
+        <v>96720</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8793,25 +8852,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -8821,10 +8880,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>553418</v>
+        <v>553386</v>
       </c>
       <c r="R75" t="n">
-        <v>6705049</v>
+        <v>6704753</v>
       </c>
       <c r="S75" t="n">
         <v>15</v>
@@ -8883,10 +8942,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112254048</v>
+        <v>112254019</v>
       </c>
       <c r="B76" t="n">
-        <v>96348</v>
+        <v>89058</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -8895,38 +8954,49 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>220787</v>
+        <v>256703</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr"/>
+          <t>R.H.Petersen</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>553339</v>
+        <v>553459</v>
       </c>
       <c r="R76" t="n">
-        <v>6705001</v>
+        <v>6705387</v>
       </c>
       <c r="S76" t="n">
         <v>15</v>
@@ -8967,6 +9037,7 @@
       <c r="AE76" t="b">
         <v>0</v>
       </c>
+      <c r="AF76" t="inlineStr"/>
       <c r="AG76" t="b">
         <v>0</v>
       </c>
@@ -8985,10 +9056,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>112253986</v>
+        <v>112249635</v>
       </c>
       <c r="B77" t="n">
-        <v>96348</v>
+        <v>56430</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -8997,53 +9068,47 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Morkullberget, Dlr</t>
+          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>553531</v>
+        <v>553482</v>
       </c>
       <c r="R77" t="n">
-        <v>6705311</v>
+        <v>6705517</v>
       </c>
       <c r="S77" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -9070,40 +9135,54 @@
           <t>2023-09-22</t>
         </is>
       </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>15:16</t>
+        </is>
+      </c>
       <c r="AA77" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
       </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>15:16</t>
+        </is>
+      </c>
+      <c r="AC77" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD77" t="b">
         <v>0</v>
       </c>
       <c r="AE77" t="b">
         <v>0</v>
       </c>
-      <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="b">
         <v>0</v>
       </c>
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>112254011</v>
+        <v>112253987</v>
       </c>
       <c r="B78" t="n">
-        <v>96348</v>
+        <v>89539</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9112,25 +9191,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9140,10 +9219,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>553479</v>
+        <v>553525</v>
       </c>
       <c r="R78" t="n">
-        <v>6704917</v>
+        <v>6705418</v>
       </c>
       <c r="S78" t="n">
         <v>15</v>
@@ -9202,10 +9281,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>112254027</v>
+        <v>112254013</v>
       </c>
       <c r="B79" t="n">
-        <v>5113</v>
+        <v>96720</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9214,47 +9293,38 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>553423</v>
+        <v>553479</v>
       </c>
       <c r="R79" t="n">
-        <v>6704779</v>
+        <v>6705228</v>
       </c>
       <c r="S79" t="n">
         <v>15</v>
@@ -9295,7 +9365,6 @@
       <c r="AE79" t="b">
         <v>0</v>
       </c>
-      <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="b">
         <v>0</v>
       </c>
@@ -9314,10 +9383,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>112254029</v>
+        <v>112254051</v>
       </c>
       <c r="B80" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9354,10 +9423,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>553417</v>
+        <v>553333</v>
       </c>
       <c r="R80" t="n">
-        <v>6704775</v>
+        <v>6704858</v>
       </c>
       <c r="S80" t="n">
         <v>15</v>
@@ -9416,10 +9485,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>112254015</v>
+        <v>112254020</v>
       </c>
       <c r="B81" t="n">
-        <v>5135</v>
+        <v>89879</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9428,47 +9497,38 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>105930</v>
+        <v>2062</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>553476</v>
+        <v>553455</v>
       </c>
       <c r="R81" t="n">
-        <v>6704913</v>
+        <v>6705497</v>
       </c>
       <c r="S81" t="n">
         <v>15</v>
@@ -9528,10 +9588,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>112249635</v>
+        <v>112254022</v>
       </c>
       <c r="B82" t="n">
-        <v>56398</v>
+        <v>96720</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9540,47 +9600,53 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
+          <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>553482</v>
+        <v>553450</v>
       </c>
       <c r="R82" t="n">
-        <v>6705517</v>
+        <v>6705147</v>
       </c>
       <c r="S82" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
@@ -9607,54 +9673,40 @@
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="Z82" t="inlineStr">
-        <is>
-          <t>15:16</t>
-        </is>
-      </c>
       <c r="AA82" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="AB82" t="inlineStr">
-        <is>
-          <t>15:16</t>
-        </is>
-      </c>
-      <c r="AC82" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD82" t="b">
         <v>0</v>
       </c>
       <c r="AE82" t="b">
         <v>0</v>
       </c>
+      <c r="AF82" t="inlineStr"/>
       <c r="AG82" t="b">
         <v>0</v>
       </c>
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss, fanny westling</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>112254022</v>
+        <v>112254040</v>
       </c>
       <c r="B83" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9686,7 +9738,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -9703,10 +9755,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>553450</v>
+        <v>553358</v>
       </c>
       <c r="R83" t="n">
-        <v>6705147</v>
+        <v>6704817</v>
       </c>
       <c r="S83" t="n">
         <v>15</v>
@@ -9766,10 +9818,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>112253987</v>
+        <v>112253991</v>
       </c>
       <c r="B84" t="n">
-        <v>89405</v>
+        <v>8377</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9778,25 +9830,25 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1202</v>
+        <v>106545</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -9806,10 +9858,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>553525</v>
+        <v>553522</v>
       </c>
       <c r="R84" t="n">
-        <v>6705418</v>
+        <v>6705362</v>
       </c>
       <c r="S84" t="n">
         <v>15</v>
@@ -9868,10 +9920,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>112254025</v>
+        <v>112253994</v>
       </c>
       <c r="B85" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -9908,10 +9960,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>553447</v>
+        <v>553513</v>
       </c>
       <c r="R85" t="n">
-        <v>6704809</v>
+        <v>6705290</v>
       </c>
       <c r="S85" t="n">
         <v>15</v>
@@ -9970,10 +10022,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>112254008</v>
+        <v>112254028</v>
       </c>
       <c r="B86" t="n">
-        <v>96348</v>
+        <v>89539</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -9982,25 +10034,25 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10010,10 +10062,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>553485</v>
+        <v>553418</v>
       </c>
       <c r="R86" t="n">
-        <v>6704932</v>
+        <v>6705049</v>
       </c>
       <c r="S86" t="n">
         <v>15</v>
@@ -10072,10 +10124,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>112253995</v>
+        <v>112254047</v>
       </c>
       <c r="B87" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10105,29 +10157,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>553512</v>
+        <v>553343</v>
       </c>
       <c r="R87" t="n">
-        <v>6705338</v>
+        <v>6704939</v>
       </c>
       <c r="S87" t="n">
         <v>15</v>
@@ -10168,7 +10208,6 @@
       <c r="AE87" t="b">
         <v>0</v>
       </c>
-      <c r="AF87" t="inlineStr"/>
       <c r="AG87" t="b">
         <v>0</v>
       </c>
@@ -10187,10 +10226,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>112253990</v>
+        <v>112254012</v>
       </c>
       <c r="B88" t="n">
-        <v>56398</v>
+        <v>96720</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10199,46 +10238,38 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>553523</v>
+        <v>553479</v>
       </c>
       <c r="R88" t="n">
-        <v>6705360</v>
+        <v>6705223</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10271,11 +10302,6 @@
       <c r="AA88" t="inlineStr">
         <is>
           <t>2023-09-22</t>
-        </is>
-      </c>
-      <c r="AC88" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10302,10 +10328,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>112254021</v>
+        <v>112254014</v>
       </c>
       <c r="B89" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10335,33 +10361,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>553450</v>
+        <v>553479</v>
       </c>
       <c r="R89" t="n">
-        <v>6705143</v>
+        <v>6705174</v>
       </c>
       <c r="S89" t="n">
         <v>15</v>
@@ -10402,7 +10412,6 @@
       <c r="AE89" t="b">
         <v>0</v>
       </c>
-      <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="b">
         <v>0</v>
       </c>
@@ -10421,10 +10430,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>112253992</v>
+        <v>112254006</v>
       </c>
       <c r="B90" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10464,11 +10473,7 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
@@ -10477,10 +10482,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>553517</v>
+        <v>553489</v>
       </c>
       <c r="R90" t="n">
-        <v>6705425</v>
+        <v>6704972</v>
       </c>
       <c r="S90" t="n">
         <v>15</v>
@@ -10540,10 +10545,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>112254000</v>
+        <v>112253992</v>
       </c>
       <c r="B91" t="n">
-        <v>56398</v>
+        <v>96720</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10552,35 +10557,43 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
@@ -10588,10 +10601,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>553499</v>
+        <v>553517</v>
       </c>
       <c r="R91" t="n">
-        <v>6705052</v>
+        <v>6705425</v>
       </c>
       <c r="S91" t="n">
         <v>15</v>
@@ -10626,17 +10639,13 @@
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="AC91" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD91" t="b">
         <v>0</v>
       </c>
       <c r="AE91" t="b">
         <v>0</v>
       </c>
+      <c r="AF91" t="inlineStr"/>
       <c r="AG91" t="b">
         <v>0</v>
       </c>
@@ -10655,10 +10664,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>112254047</v>
+        <v>112253981</v>
       </c>
       <c r="B92" t="n">
-        <v>96348</v>
+        <v>89539</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10667,25 +10676,25 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -10695,10 +10704,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>553343</v>
+        <v>553541</v>
       </c>
       <c r="R92" t="n">
-        <v>6704939</v>
+        <v>6705249</v>
       </c>
       <c r="S92" t="n">
         <v>15</v>
@@ -10757,10 +10766,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>112254035</v>
+        <v>112253985</v>
       </c>
       <c r="B93" t="n">
-        <v>89405</v>
+        <v>96720</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10769,38 +10778,50 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>553389</v>
+        <v>553531</v>
       </c>
       <c r="R93" t="n">
-        <v>6704754</v>
+        <v>6705240</v>
       </c>
       <c r="S93" t="n">
         <v>15</v>
@@ -10841,6 +10862,7 @@
       <c r="AE93" t="b">
         <v>0</v>
       </c>
+      <c r="AF93" t="inlineStr"/>
       <c r="AG93" t="b">
         <v>0</v>
       </c>
@@ -10859,10 +10881,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>112253978</v>
+        <v>112253983</v>
       </c>
       <c r="B94" t="n">
-        <v>89405</v>
+        <v>89979</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -10871,25 +10893,25 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -10899,10 +10921,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>553546</v>
+        <v>553540</v>
       </c>
       <c r="R94" t="n">
-        <v>6705297</v>
+        <v>6705286</v>
       </c>
       <c r="S94" t="n">
         <v>15</v>
@@ -10961,10 +10983,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>112254052</v>
+        <v>112254000</v>
       </c>
       <c r="B95" t="n">
-        <v>96348</v>
+        <v>56430</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -10973,39 +10995,35 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
@@ -11013,10 +11031,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>553330</v>
+        <v>553499</v>
       </c>
       <c r="R95" t="n">
-        <v>6704878</v>
+        <v>6705052</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11051,13 +11069,17 @@
           <t>2023-09-22</t>
         </is>
       </c>
+      <c r="AC95" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD95" t="b">
         <v>0</v>
       </c>
       <c r="AE95" t="b">
         <v>0</v>
       </c>
-      <c r="AF95" t="inlineStr"/>
       <c r="AG95" t="b">
         <v>0</v>
       </c>
@@ -11076,10 +11098,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>112253988</v>
+        <v>112253980</v>
       </c>
       <c r="B96" t="n">
-        <v>89845</v>
+        <v>89539</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11088,25 +11110,25 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11116,10 +11138,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>553525</v>
+        <v>553540</v>
       </c>
       <c r="R96" t="n">
-        <v>6705427</v>
+        <v>6705286</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11178,10 +11200,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>112254013</v>
+        <v>112254004</v>
       </c>
       <c r="B97" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11218,10 +11240,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>553479</v>
+        <v>553496</v>
       </c>
       <c r="R97" t="n">
-        <v>6705228</v>
+        <v>6705263</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11280,10 +11302,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>112254031</v>
+        <v>112254001</v>
       </c>
       <c r="B98" t="n">
-        <v>5135</v>
+        <v>96720</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11292,47 +11314,38 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>105930</v>
+        <v>220787</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>553400</v>
+        <v>553497</v>
       </c>
       <c r="R98" t="n">
-        <v>6704775</v>
+        <v>6705035</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -11373,7 +11386,6 @@
       <c r="AE98" t="b">
         <v>0</v>
       </c>
-      <c r="AF98" t="inlineStr"/>
       <c r="AG98" t="b">
         <v>0</v>
       </c>
@@ -11392,10 +11404,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>112254012</v>
+        <v>112253998</v>
       </c>
       <c r="B99" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11432,10 +11444,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>553479</v>
+        <v>553506</v>
       </c>
       <c r="R99" t="n">
-        <v>6705223</v>
+        <v>6705290</v>
       </c>
       <c r="S99" t="n">
         <v>15</v>
@@ -11494,10 +11506,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>112254045</v>
+        <v>112254041</v>
       </c>
       <c r="B100" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11527,17 +11539,29 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>553351</v>
+        <v>553358</v>
       </c>
       <c r="R100" t="n">
-        <v>6704833</v>
+        <v>6704825</v>
       </c>
       <c r="S100" t="n">
         <v>15</v>
@@ -11578,6 +11602,7 @@
       <c r="AE100" t="b">
         <v>0</v>
       </c>
+      <c r="AF100" t="inlineStr"/>
       <c r="AG100" t="b">
         <v>0</v>
       </c>
@@ -11596,10 +11621,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>112254002</v>
+        <v>112254043</v>
       </c>
       <c r="B101" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11636,10 +11661,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>553497</v>
+        <v>553352</v>
       </c>
       <c r="R101" t="n">
-        <v>6705280</v>
+        <v>6704852</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -11698,10 +11723,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>112254016</v>
+        <v>112254039</v>
       </c>
       <c r="B102" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11738,10 +11763,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>553476</v>
+        <v>553361</v>
       </c>
       <c r="R102" t="n">
-        <v>6704913</v>
+        <v>6704802</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -11800,10 +11825,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>112254044</v>
+        <v>112254023</v>
       </c>
       <c r="B103" t="n">
-        <v>96348</v>
+        <v>89539</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -11812,50 +11837,38 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>553351</v>
+        <v>553449</v>
       </c>
       <c r="R103" t="n">
-        <v>6704849</v>
+        <v>6705492</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -11896,7 +11909,6 @@
       <c r="AE103" t="b">
         <v>0</v>
       </c>
-      <c r="AF103" t="inlineStr"/>
       <c r="AG103" t="b">
         <v>0</v>
       </c>
@@ -11915,10 +11927,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>112254026</v>
+        <v>112254044</v>
       </c>
       <c r="B104" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -11948,17 +11960,29 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>553439</v>
+        <v>553351</v>
       </c>
       <c r="R104" t="n">
-        <v>6705097</v>
+        <v>6704849</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -11999,6 +12023,7 @@
       <c r="AE104" t="b">
         <v>0</v>
       </c>
+      <c r="AF104" t="inlineStr"/>
       <c r="AG104" t="b">
         <v>0</v>
       </c>
@@ -12017,10 +12042,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>112253981</v>
+        <v>112254048</v>
       </c>
       <c r="B105" t="n">
-        <v>89405</v>
+        <v>96720</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12029,25 +12054,25 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12057,10 +12082,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>553541</v>
+        <v>553339</v>
       </c>
       <c r="R105" t="n">
-        <v>6705249</v>
+        <v>6705001</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12119,10 +12144,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>112253985</v>
+        <v>112254029</v>
       </c>
       <c r="B106" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12152,29 +12177,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>553531</v>
+        <v>553417</v>
       </c>
       <c r="R106" t="n">
-        <v>6705240</v>
+        <v>6704775</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12215,7 +12228,6 @@
       <c r="AE106" t="b">
         <v>0</v>
       </c>
-      <c r="AF106" t="inlineStr"/>
       <c r="AG106" t="b">
         <v>0</v>
       </c>
@@ -12234,10 +12246,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>112254019</v>
+        <v>112254005</v>
       </c>
       <c r="B107" t="n">
-        <v>88924</v>
+        <v>89503</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12250,45 +12262,34 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>256703</v>
+        <v>5447</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="N107" t="inlineStr"/>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="P107" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>553459</v>
+        <v>553494</v>
       </c>
       <c r="R107" t="n">
-        <v>6705387</v>
+        <v>6705017</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -12329,7 +12330,6 @@
       <c r="AE107" t="b">
         <v>0</v>
       </c>
-      <c r="AF107" t="inlineStr"/>
       <c r="AG107" t="b">
         <v>0</v>
       </c>
@@ -12345,6 +12345,1552 @@
         </is>
       </c>
       <c r="AY107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>112326491</v>
+      </c>
+      <c r="B108" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>Amshyttan, Dlr</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>553456</v>
+      </c>
+      <c r="R108" t="n">
+        <v>6704987</v>
+      </c>
+      <c r="S108" t="n">
+        <v>10</v>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y108" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA108" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD108" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE108" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF108" t="inlineStr"/>
+      <c r="AG108" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT108" t="inlineStr"/>
+      <c r="AW108" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AX108" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AY108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>112326482</v>
+      </c>
+      <c r="B109" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>Amshyttan, Dlr</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>553444</v>
+      </c>
+      <c r="R109" t="n">
+        <v>6705045</v>
+      </c>
+      <c r="S109" t="n">
+        <v>10</v>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y109" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA109" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF109" t="inlineStr"/>
+      <c r="AG109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT109" t="inlineStr"/>
+      <c r="AW109" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AX109" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AY109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>112326437</v>
+      </c>
+      <c r="B110" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>Amshyttan, Dlr</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>553404</v>
+      </c>
+      <c r="R110" t="n">
+        <v>6705030</v>
+      </c>
+      <c r="S110" t="n">
+        <v>10</v>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y110" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA110" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF110" t="inlineStr"/>
+      <c r="AG110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT110" t="inlineStr"/>
+      <c r="AW110" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AX110" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AY110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>112248365</v>
+      </c>
+      <c r="B111" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>553493</v>
+      </c>
+      <c r="R111" t="n">
+        <v>6705276</v>
+      </c>
+      <c r="S111" t="n">
+        <v>1</v>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y111" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z111" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
+      <c r="AA111" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB111" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
+      <c r="AD111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT111" t="inlineStr"/>
+      <c r="AW111" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AX111" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AY111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>112248468</v>
+      </c>
+      <c r="B112" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>553472</v>
+      </c>
+      <c r="R112" t="n">
+        <v>6705237</v>
+      </c>
+      <c r="S112" t="n">
+        <v>1</v>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y112" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z112" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
+      <c r="AA112" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB112" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
+      <c r="AD112" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE112" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG112" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT112" t="inlineStr"/>
+      <c r="AW112" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AX112" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AY112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112248564</v>
+      </c>
+      <c r="B113" t="n">
+        <v>90114</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>1179</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Gräddticka</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Perenniporia subacida</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>(Peck) Donk</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>553474</v>
+      </c>
+      <c r="R113" t="n">
+        <v>6705181</v>
+      </c>
+      <c r="S113" t="n">
+        <v>1</v>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W113" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y113" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z113" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
+      <c r="AA113" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB113" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
+      <c r="AC113" t="inlineStr">
+        <is>
+          <t>Resipunat på mossbevuxen granlåga</t>
+        </is>
+      </c>
+      <c r="AD113" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE113" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF113" t="inlineStr"/>
+      <c r="AG113" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT113" t="inlineStr"/>
+      <c r="AW113" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AX113" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AY113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>112326464</v>
+      </c>
+      <c r="B114" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>Amshyttan, Dlr</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>553445</v>
+      </c>
+      <c r="R114" t="n">
+        <v>6705069</v>
+      </c>
+      <c r="S114" t="n">
+        <v>10</v>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W114" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y114" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA114" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AC114" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
+      <c r="AD114" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE114" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG114" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT114" t="inlineStr"/>
+      <c r="AW114" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AX114" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AY114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>112253984</v>
+      </c>
+      <c r="B115" t="n">
+        <v>89924</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>6040186</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Leptoporus mollis</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>(Pers.:Fr.) Quél.</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>Morkullberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>553540</v>
+      </c>
+      <c r="R115" t="n">
+        <v>6705286</v>
+      </c>
+      <c r="S115" t="n">
+        <v>15</v>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W115" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y115" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA115" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD115" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE115" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF115" t="inlineStr"/>
+      <c r="AG115" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT115" t="inlineStr"/>
+      <c r="AW115" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX115" t="inlineStr">
+        <is>
+          <t>Philipp Weiss, fanny westling</t>
+        </is>
+      </c>
+      <c r="AY115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>112326426</v>
+      </c>
+      <c r="B116" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>Amshyttan, Dlr</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>553407</v>
+      </c>
+      <c r="R116" t="n">
+        <v>6705043</v>
+      </c>
+      <c r="S116" t="n">
+        <v>10</v>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W116" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y116" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA116" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD116" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE116" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF116" t="inlineStr"/>
+      <c r="AG116" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT116" t="inlineStr"/>
+      <c r="AW116" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AX116" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AY116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>112337718</v>
+      </c>
+      <c r="B117" t="n">
+        <v>89820</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>658</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>Flyttjesundet (Flyttjesundet), Dlr</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>553390</v>
+      </c>
+      <c r="R117" t="n">
+        <v>6704781</v>
+      </c>
+      <c r="S117" t="n">
+        <v>15</v>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W117" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y117" t="inlineStr">
+        <is>
+          <t>2023-05-30</t>
+        </is>
+      </c>
+      <c r="Z117" t="inlineStr">
+        <is>
+          <t>20:16</t>
+        </is>
+      </c>
+      <c r="AA117" t="inlineStr">
+        <is>
+          <t>2023-05-30</t>
+        </is>
+      </c>
+      <c r="AB117" t="inlineStr">
+        <is>
+          <t>20:16</t>
+        </is>
+      </c>
+      <c r="AD117" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE117" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG117" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT117" t="inlineStr"/>
+      <c r="AW117" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX117" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>112248494</v>
+      </c>
+      <c r="B118" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>553470</v>
+      </c>
+      <c r="R118" t="n">
+        <v>6705210</v>
+      </c>
+      <c r="S118" t="n">
+        <v>1</v>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W118" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y118" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z118" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
+      <c r="AA118" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB118" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
+      <c r="AD118" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE118" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG118" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT118" t="inlineStr"/>
+      <c r="AW118" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AX118" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AY118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>112326395</v>
+      </c>
+      <c r="B119" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>Amshyttan, Dlr</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>553409</v>
+      </c>
+      <c r="R119" t="n">
+        <v>6705092</v>
+      </c>
+      <c r="S119" t="n">
+        <v>10</v>
+      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W119" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y119" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA119" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD119" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE119" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF119" t="inlineStr"/>
+      <c r="AG119" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT119" t="inlineStr"/>
+      <c r="AW119" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AX119" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AY119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>112248387</v>
+      </c>
+      <c r="B120" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>553501</v>
+      </c>
+      <c r="R120" t="n">
+        <v>6705280</v>
+      </c>
+      <c r="S120" t="n">
+        <v>1</v>
+      </c>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W120" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y120" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z120" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
+      <c r="AA120" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB120" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
+      <c r="AD120" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE120" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG120" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT120" t="inlineStr"/>
+      <c r="AW120" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AX120" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AY120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>112249511</v>
+      </c>
+      <c r="B121" t="n">
+        <v>89979</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>553517</v>
+      </c>
+      <c r="R121" t="n">
+        <v>6705424</v>
+      </c>
+      <c r="S121" t="n">
+        <v>1</v>
+      </c>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W121" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y121" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z121" t="inlineStr">
+        <is>
+          <t>15:08</t>
+        </is>
+      </c>
+      <c r="AA121" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB121" t="inlineStr">
+        <is>
+          <t>15:08</t>
+        </is>
+      </c>
+      <c r="AD121" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE121" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG121" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT121" t="inlineStr"/>
+      <c r="AW121" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AX121" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AY121" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 18040-2021.xlsx
+++ b/artfynd/A 18040-2021.xlsx
@@ -6271,10 +6271,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112254046</v>
+        <v>112254035</v>
       </c>
       <c r="B51" t="n">
-        <v>96720</v>
+        <v>89539</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6283,25 +6283,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6311,10 +6311,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>553347</v>
+        <v>553389</v>
       </c>
       <c r="R51" t="n">
-        <v>6704930</v>
+        <v>6704754</v>
       </c>
       <c r="S51" t="n">
         <v>15</v>
@@ -6373,10 +6373,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112254035</v>
+        <v>112254046</v>
       </c>
       <c r="B52" t="n">
-        <v>89539</v>
+        <v>96720</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6385,25 +6385,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6413,10 +6413,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>553389</v>
+        <v>553347</v>
       </c>
       <c r="R52" t="n">
-        <v>6704754</v>
+        <v>6704930</v>
       </c>
       <c r="S52" t="n">
         <v>15</v>
@@ -7024,10 +7024,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112254015</v>
+        <v>112254026</v>
       </c>
       <c r="B58" t="n">
-        <v>5135</v>
+        <v>96720</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7036,47 +7036,38 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>105930</v>
+        <v>220787</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>553476</v>
+        <v>553439</v>
       </c>
       <c r="R58" t="n">
-        <v>6704913</v>
+        <v>6705097</v>
       </c>
       <c r="S58" t="n">
         <v>15</v>
@@ -7117,7 +7108,6 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
-      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -7136,10 +7126,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112253988</v>
+        <v>112254015</v>
       </c>
       <c r="B59" t="n">
-        <v>89979</v>
+        <v>5135</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7148,38 +7138,47 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1209</v>
+        <v>105930</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>553525</v>
+        <v>553476</v>
       </c>
       <c r="R59" t="n">
-        <v>6705427</v>
+        <v>6704913</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7220,6 +7219,7 @@
       <c r="AE59" t="b">
         <v>0</v>
       </c>
+      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>
@@ -7238,10 +7238,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112253978</v>
+        <v>112253988</v>
       </c>
       <c r="B60" t="n">
-        <v>89539</v>
+        <v>89979</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7250,25 +7250,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7278,10 +7278,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>553546</v>
+        <v>553525</v>
       </c>
       <c r="R60" t="n">
-        <v>6705297</v>
+        <v>6705427</v>
       </c>
       <c r="S60" t="n">
         <v>15</v>
@@ -7340,10 +7340,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112254045</v>
+        <v>112253978</v>
       </c>
       <c r="B61" t="n">
-        <v>96720</v>
+        <v>89539</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7352,25 +7352,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7380,10 +7380,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>553351</v>
+        <v>553546</v>
       </c>
       <c r="R61" t="n">
-        <v>6704833</v>
+        <v>6705297</v>
       </c>
       <c r="S61" t="n">
         <v>15</v>
@@ -7442,10 +7442,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112253993</v>
+        <v>112254045</v>
       </c>
       <c r="B62" t="n">
-        <v>56430</v>
+        <v>96720</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7454,46 +7454,38 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>553514</v>
+        <v>553351</v>
       </c>
       <c r="R62" t="n">
-        <v>6705442</v>
+        <v>6704833</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>
@@ -7526,11 +7518,6 @@
       <c r="AA62" t="inlineStr">
         <is>
           <t>2023-09-22</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7557,10 +7544,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112254007</v>
+        <v>112253993</v>
       </c>
       <c r="B63" t="n">
-        <v>90812</v>
+        <v>56430</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7569,38 +7556,46 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>4366</v>
+        <v>100109</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>553484</v>
+        <v>553514</v>
       </c>
       <c r="R63" t="n">
-        <v>6705509</v>
+        <v>6705442</v>
       </c>
       <c r="S63" t="n">
         <v>15</v>
@@ -7633,6 +7628,11 @@
       <c r="AA63" t="inlineStr">
         <is>
           <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7659,10 +7659,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112254026</v>
+        <v>112254007</v>
       </c>
       <c r="B64" t="n">
-        <v>96720</v>
+        <v>90812</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7671,25 +7671,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>220787</v>
+        <v>4366</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7699,10 +7699,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>553439</v>
+        <v>553484</v>
       </c>
       <c r="R64" t="n">
-        <v>6705097</v>
+        <v>6705509</v>
       </c>
       <c r="S64" t="n">
         <v>15</v>
@@ -9056,10 +9056,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>112249635</v>
+        <v>112254051</v>
       </c>
       <c r="B77" t="n">
-        <v>56430</v>
+        <v>96720</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9068,47 +9068,41 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
+          <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>553482</v>
+        <v>553333</v>
       </c>
       <c r="R77" t="n">
-        <v>6705517</v>
+        <v>6704858</v>
       </c>
       <c r="S77" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -9135,24 +9129,9 @@
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="Z77" t="inlineStr">
-        <is>
-          <t>15:16</t>
-        </is>
-      </c>
       <c r="AA77" t="inlineStr">
         <is>
           <t>2023-09-22</t>
-        </is>
-      </c>
-      <c r="AB77" t="inlineStr">
-        <is>
-          <t>15:16</t>
-        </is>
-      </c>
-      <c r="AC77" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9167,22 +9146,22 @@
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss, fanny westling</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>112253987</v>
+        <v>112249635</v>
       </c>
       <c r="B78" t="n">
-        <v>89539</v>
+        <v>56430</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9195,37 +9174,43 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Morkullberget, Dlr</t>
+          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>553525</v>
+        <v>553482</v>
       </c>
       <c r="R78" t="n">
-        <v>6705418</v>
+        <v>6705517</v>
       </c>
       <c r="S78" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -9252,9 +9237,24 @@
           <t>2023-09-22</t>
         </is>
       </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>15:16</t>
+        </is>
+      </c>
       <c r="AA78" t="inlineStr">
         <is>
           <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>15:16</t>
+        </is>
+      </c>
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9269,22 +9269,22 @@
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>112254013</v>
+        <v>112253987</v>
       </c>
       <c r="B79" t="n">
-        <v>96720</v>
+        <v>89539</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9293,25 +9293,25 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9321,10 +9321,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>553479</v>
+        <v>553525</v>
       </c>
       <c r="R79" t="n">
-        <v>6705228</v>
+        <v>6705418</v>
       </c>
       <c r="S79" t="n">
         <v>15</v>
@@ -9383,7 +9383,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>112254051</v>
+        <v>112254013</v>
       </c>
       <c r="B80" t="n">
         <v>96720</v>
@@ -9423,10 +9423,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>553333</v>
+        <v>553479</v>
       </c>
       <c r="R80" t="n">
-        <v>6704858</v>
+        <v>6705228</v>
       </c>
       <c r="S80" t="n">
         <v>15</v>
@@ -10328,7 +10328,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>112254014</v>
+        <v>112254006</v>
       </c>
       <c r="B89" t="n">
         <v>96720</v>
@@ -10361,17 +10361,29 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>553479</v>
+        <v>553489</v>
       </c>
       <c r="R89" t="n">
-        <v>6705174</v>
+        <v>6704972</v>
       </c>
       <c r="S89" t="n">
         <v>15</v>
@@ -10412,6 +10424,7 @@
       <c r="AE89" t="b">
         <v>0</v>
       </c>
+      <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="b">
         <v>0</v>
       </c>
@@ -10430,7 +10443,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>112254006</v>
+        <v>112253992</v>
       </c>
       <c r="B90" t="n">
         <v>96720</v>
@@ -10473,7 +10486,11 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
       <c r="L90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
@@ -10482,10 +10499,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>553489</v>
+        <v>553517</v>
       </c>
       <c r="R90" t="n">
-        <v>6704972</v>
+        <v>6705425</v>
       </c>
       <c r="S90" t="n">
         <v>15</v>
@@ -10545,10 +10562,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>112253992</v>
+        <v>112253981</v>
       </c>
       <c r="B91" t="n">
-        <v>96720</v>
+        <v>89539</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10557,54 +10574,38 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>553517</v>
+        <v>553541</v>
       </c>
       <c r="R91" t="n">
-        <v>6705425</v>
+        <v>6705249</v>
       </c>
       <c r="S91" t="n">
         <v>15</v>
@@ -10645,7 +10646,6 @@
       <c r="AE91" t="b">
         <v>0</v>
       </c>
-      <c r="AF91" t="inlineStr"/>
       <c r="AG91" t="b">
         <v>0</v>
       </c>
@@ -10664,10 +10664,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>112253981</v>
+        <v>112253985</v>
       </c>
       <c r="B92" t="n">
-        <v>89539</v>
+        <v>96720</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10676,38 +10676,50 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>553541</v>
+        <v>553531</v>
       </c>
       <c r="R92" t="n">
-        <v>6705249</v>
+        <v>6705240</v>
       </c>
       <c r="S92" t="n">
         <v>15</v>
@@ -10748,6 +10760,7 @@
       <c r="AE92" t="b">
         <v>0</v>
       </c>
+      <c r="AF92" t="inlineStr"/>
       <c r="AG92" t="b">
         <v>0</v>
       </c>
@@ -10766,10 +10779,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>112253985</v>
+        <v>112253983</v>
       </c>
       <c r="B93" t="n">
-        <v>96720</v>
+        <v>89979</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10782,46 +10795,34 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>553531</v>
+        <v>553540</v>
       </c>
       <c r="R93" t="n">
-        <v>6705240</v>
+        <v>6705286</v>
       </c>
       <c r="S93" t="n">
         <v>15</v>
@@ -10862,7 +10863,6 @@
       <c r="AE93" t="b">
         <v>0</v>
       </c>
-      <c r="AF93" t="inlineStr"/>
       <c r="AG93" t="b">
         <v>0</v>
       </c>
@@ -10881,10 +10881,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>112253983</v>
+        <v>112254000</v>
       </c>
       <c r="B94" t="n">
-        <v>89979</v>
+        <v>56430</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -10893,38 +10893,46 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1209</v>
+        <v>100109</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>553540</v>
+        <v>553499</v>
       </c>
       <c r="R94" t="n">
-        <v>6705286</v>
+        <v>6705052</v>
       </c>
       <c r="S94" t="n">
         <v>15</v>
@@ -10957,6 +10965,11 @@
       <c r="AA94" t="inlineStr">
         <is>
           <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AC94" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -10983,10 +10996,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>112254000</v>
+        <v>112254014</v>
       </c>
       <c r="B95" t="n">
-        <v>56430</v>
+        <v>96720</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -10995,46 +11008,38 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>553499</v>
+        <v>553479</v>
       </c>
       <c r="R95" t="n">
-        <v>6705052</v>
+        <v>6705174</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11067,11 +11072,6 @@
       <c r="AA95" t="inlineStr">
         <is>
           <t>2023-09-22</t>
-        </is>
-      </c>
-      <c r="AC95" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -13448,7 +13448,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>112248494</v>
+        <v>112326395</v>
       </c>
       <c r="B118" t="n">
         <v>96720</v>
@@ -13482,20 +13482,23 @@
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
       <c r="P118" t="inlineStr">
         <is>
-          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
+          <t>Amshyttan, Dlr</t>
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>553470</v>
+        <v>553409</v>
       </c>
       <c r="R118" t="n">
-        <v>6705210</v>
+        <v>6705092</v>
       </c>
       <c r="S118" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T118" t="inlineStr">
         <is>
@@ -13522,27 +13525,18 @@
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="Z118" t="inlineStr">
-        <is>
-          <t>13:47</t>
-        </is>
-      </c>
       <c r="AA118" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="AB118" t="inlineStr">
-        <is>
-          <t>13:47</t>
-        </is>
-      </c>
       <c r="AD118" t="b">
         <v>0</v>
       </c>
       <c r="AE118" t="b">
         <v>0</v>
       </c>
+      <c r="AF118" t="inlineStr"/>
       <c r="AG118" t="b">
         <v>0</v>
       </c>
@@ -13561,7 +13555,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>112326395</v>
+        <v>112248494</v>
       </c>
       <c r="B119" t="n">
         <v>96720</v>
@@ -13595,23 +13589,20 @@
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="N119" t="inlineStr"/>
       <c r="P119" t="inlineStr">
         <is>
-          <t>Amshyttan, Dlr</t>
+          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>553409</v>
+        <v>553470</v>
       </c>
       <c r="R119" t="n">
-        <v>6705092</v>
+        <v>6705210</v>
       </c>
       <c r="S119" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T119" t="inlineStr">
         <is>
@@ -13638,18 +13629,27 @@
           <t>2023-09-22</t>
         </is>
       </c>
+      <c r="Z119" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
       <c r="AA119" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
       </c>
+      <c r="AB119" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
       <c r="AD119" t="b">
         <v>0</v>
       </c>
       <c r="AE119" t="b">
         <v>0</v>
       </c>
-      <c r="AF119" t="inlineStr"/>
       <c r="AG119" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 18040-2021.xlsx
+++ b/artfynd/A 18040-2021.xlsx
@@ -5735,10 +5735,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112254052</v>
+        <v>112254008</v>
       </c>
       <c r="B46" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5768,29 +5768,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>553330</v>
+        <v>553485</v>
       </c>
       <c r="R46" t="n">
-        <v>6704878</v>
+        <v>6704932</v>
       </c>
       <c r="S46" t="n">
         <v>15</v>
@@ -5831,7 +5819,6 @@
       <c r="AE46" t="b">
         <v>0</v>
       </c>
-      <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="b">
         <v>0</v>
       </c>
@@ -5850,10 +5837,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112254003</v>
+        <v>112253981</v>
       </c>
       <c r="B47" t="n">
-        <v>96720</v>
+        <v>89553</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5862,25 +5849,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5890,10 +5877,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>553494</v>
+        <v>553541</v>
       </c>
       <c r="R47" t="n">
-        <v>6705007</v>
+        <v>6705249</v>
       </c>
       <c r="S47" t="n">
         <v>15</v>
@@ -5952,10 +5939,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112254016</v>
+        <v>112254002</v>
       </c>
       <c r="B48" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5992,10 +5979,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>553476</v>
+        <v>553497</v>
       </c>
       <c r="R48" t="n">
-        <v>6704913</v>
+        <v>6705280</v>
       </c>
       <c r="S48" t="n">
         <v>15</v>
@@ -6054,10 +6041,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112254010</v>
+        <v>112254028</v>
       </c>
       <c r="B49" t="n">
-        <v>89058</v>
+        <v>89553</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6066,25 +6053,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>256703</v>
+        <v>1202</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6094,10 +6081,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>553481</v>
+        <v>553418</v>
       </c>
       <c r="R49" t="n">
-        <v>6705395</v>
+        <v>6705049</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -6156,10 +6143,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112253999</v>
+        <v>112253996</v>
       </c>
       <c r="B50" t="n">
-        <v>56430</v>
+        <v>96735</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6168,46 +6155,38 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>553502</v>
+        <v>553511</v>
       </c>
       <c r="R50" t="n">
-        <v>6704909</v>
+        <v>6705107</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -6240,11 +6219,6 @@
       <c r="AA50" t="inlineStr">
         <is>
           <t>2023-09-22</t>
-        </is>
-      </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6271,10 +6245,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112254035</v>
+        <v>112254041</v>
       </c>
       <c r="B51" t="n">
-        <v>89539</v>
+        <v>96735</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6283,38 +6257,50 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>553389</v>
+        <v>553358</v>
       </c>
       <c r="R51" t="n">
-        <v>6704754</v>
+        <v>6704825</v>
       </c>
       <c r="S51" t="n">
         <v>15</v>
@@ -6355,6 +6341,7 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
+      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -6373,10 +6360,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112254046</v>
+        <v>112254009</v>
       </c>
       <c r="B52" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6406,17 +6393,29 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>553347</v>
+        <v>553483</v>
       </c>
       <c r="R52" t="n">
-        <v>6704930</v>
+        <v>6704957</v>
       </c>
       <c r="S52" t="n">
         <v>15</v>
@@ -6457,6 +6456,7 @@
       <c r="AE52" t="b">
         <v>0</v>
       </c>
+      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -6475,10 +6475,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112254011</v>
+        <v>112254022</v>
       </c>
       <c r="B53" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6508,17 +6508,29 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>553479</v>
+        <v>553450</v>
       </c>
       <c r="R53" t="n">
-        <v>6704917</v>
+        <v>6705147</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -6559,6 +6571,7 @@
       <c r="AE53" t="b">
         <v>0</v>
       </c>
+      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
       </c>
@@ -6577,10 +6590,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112253990</v>
+        <v>112254007</v>
       </c>
       <c r="B54" t="n">
-        <v>56430</v>
+        <v>90826</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6589,46 +6602,38 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100109</v>
+        <v>4366</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>553523</v>
+        <v>553484</v>
       </c>
       <c r="R54" t="n">
-        <v>6705360</v>
+        <v>6705509</v>
       </c>
       <c r="S54" t="n">
         <v>15</v>
@@ -6661,11 +6666,6 @@
       <c r="AA54" t="inlineStr">
         <is>
           <t>2023-09-22</t>
-        </is>
-      </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6692,10 +6692,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112253996</v>
+        <v>112253980</v>
       </c>
       <c r="B55" t="n">
-        <v>96720</v>
+        <v>89553</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6704,25 +6704,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6732,10 +6732,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>553511</v>
+        <v>553540</v>
       </c>
       <c r="R55" t="n">
-        <v>6705107</v>
+        <v>6705286</v>
       </c>
       <c r="S55" t="n">
         <v>15</v>
@@ -6794,10 +6794,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112253986</v>
+        <v>112253991</v>
       </c>
       <c r="B56" t="n">
-        <v>96720</v>
+        <v>8377</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6806,50 +6806,38 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>220787</v>
+        <v>106545</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>553531</v>
+        <v>553522</v>
       </c>
       <c r="R56" t="n">
-        <v>6705311</v>
+        <v>6705362</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -6890,7 +6878,6 @@
       <c r="AE56" t="b">
         <v>0</v>
       </c>
-      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
@@ -6909,10 +6896,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112253995</v>
+        <v>112254023</v>
       </c>
       <c r="B57" t="n">
-        <v>96720</v>
+        <v>89553</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6921,50 +6908,38 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>553512</v>
+        <v>553449</v>
       </c>
       <c r="R57" t="n">
-        <v>6705338</v>
+        <v>6705492</v>
       </c>
       <c r="S57" t="n">
         <v>15</v>
@@ -7005,7 +6980,6 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
-      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -7024,10 +6998,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112254026</v>
+        <v>112254019</v>
       </c>
       <c r="B58" t="n">
-        <v>96720</v>
+        <v>89072</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7036,38 +7010,49 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>220787</v>
+        <v>256703</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
+          <t>R.H.Petersen</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>553439</v>
+        <v>553459</v>
       </c>
       <c r="R58" t="n">
-        <v>6705097</v>
+        <v>6705387</v>
       </c>
       <c r="S58" t="n">
         <v>15</v>
@@ -7108,6 +7093,7 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
+      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -7126,10 +7112,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112254015</v>
+        <v>112253990</v>
       </c>
       <c r="B59" t="n">
-        <v>5135</v>
+        <v>56430</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7138,20 +7124,20 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>105930</v>
+        <v>100109</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -7160,12 +7146,11 @@
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N59" t="inlineStr"/>
@@ -7175,10 +7160,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>553476</v>
+        <v>553523</v>
       </c>
       <c r="R59" t="n">
-        <v>6704913</v>
+        <v>6705360</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7213,13 +7198,17 @@
           <t>2023-09-22</t>
         </is>
       </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD59" t="b">
         <v>0</v>
       </c>
       <c r="AE59" t="b">
         <v>0</v>
       </c>
-      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>
@@ -7238,10 +7227,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112253988</v>
+        <v>112254000</v>
       </c>
       <c r="B60" t="n">
-        <v>89979</v>
+        <v>56430</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7250,38 +7239,46 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1209</v>
+        <v>100109</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>553525</v>
+        <v>553499</v>
       </c>
       <c r="R60" t="n">
-        <v>6705427</v>
+        <v>6705052</v>
       </c>
       <c r="S60" t="n">
         <v>15</v>
@@ -7314,6 +7311,11 @@
       <c r="AA60" t="inlineStr">
         <is>
           <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7340,10 +7342,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112253978</v>
+        <v>112254052</v>
       </c>
       <c r="B61" t="n">
-        <v>89539</v>
+        <v>96735</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7352,38 +7354,50 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>553546</v>
+        <v>553330</v>
       </c>
       <c r="R61" t="n">
-        <v>6705297</v>
+        <v>6704878</v>
       </c>
       <c r="S61" t="n">
         <v>15</v>
@@ -7424,6 +7438,7 @@
       <c r="AE61" t="b">
         <v>0</v>
       </c>
+      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
       </c>
@@ -7442,10 +7457,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112254045</v>
+        <v>112254029</v>
       </c>
       <c r="B62" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7482,10 +7497,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>553351</v>
+        <v>553417</v>
       </c>
       <c r="R62" t="n">
-        <v>6704833</v>
+        <v>6704775</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>
@@ -7544,10 +7559,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112253993</v>
+        <v>112254015</v>
       </c>
       <c r="B63" t="n">
-        <v>56430</v>
+        <v>5135</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7556,20 +7571,20 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100109</v>
+        <v>105930</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -7578,11 +7593,12 @@
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
@@ -7592,10 +7608,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>553514</v>
+        <v>553476</v>
       </c>
       <c r="R63" t="n">
-        <v>6705442</v>
+        <v>6704913</v>
       </c>
       <c r="S63" t="n">
         <v>15</v>
@@ -7630,17 +7646,13 @@
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD63" t="b">
         <v>0</v>
       </c>
       <c r="AE63" t="b">
         <v>0</v>
       </c>
+      <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="b">
         <v>0</v>
       </c>
@@ -7659,10 +7671,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112254007</v>
+        <v>112253978</v>
       </c>
       <c r="B64" t="n">
-        <v>90812</v>
+        <v>89553</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7671,25 +7683,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4366</v>
+        <v>1202</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7699,10 +7711,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>553484</v>
+        <v>553546</v>
       </c>
       <c r="R64" t="n">
-        <v>6705509</v>
+        <v>6705297</v>
       </c>
       <c r="S64" t="n">
         <v>15</v>
@@ -7761,10 +7773,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>112253977</v>
+        <v>112253983</v>
       </c>
       <c r="B65" t="n">
-        <v>96720</v>
+        <v>89993</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7777,42 +7789,34 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>553575</v>
+        <v>553540</v>
       </c>
       <c r="R65" t="n">
-        <v>6705296</v>
+        <v>6705286</v>
       </c>
       <c r="S65" t="n">
         <v>15</v>
@@ -7853,7 +7857,6 @@
       <c r="AE65" t="b">
         <v>0</v>
       </c>
-      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
       </c>
@@ -7872,10 +7875,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112254021</v>
+        <v>112253986</v>
       </c>
       <c r="B66" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7907,7 +7910,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -7915,11 +7918,7 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
@@ -7928,10 +7927,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>553450</v>
+        <v>553531</v>
       </c>
       <c r="R66" t="n">
-        <v>6705143</v>
+        <v>6705311</v>
       </c>
       <c r="S66" t="n">
         <v>15</v>
@@ -7991,10 +7990,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112254032</v>
+        <v>112253987</v>
       </c>
       <c r="B67" t="n">
-        <v>89539</v>
+        <v>89553</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8031,10 +8030,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>553397</v>
+        <v>553525</v>
       </c>
       <c r="R67" t="n">
-        <v>6705068</v>
+        <v>6705418</v>
       </c>
       <c r="S67" t="n">
         <v>15</v>
@@ -8093,10 +8092,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>112254009</v>
+        <v>112254005</v>
       </c>
       <c r="B68" t="n">
-        <v>96720</v>
+        <v>89517</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8105,50 +8104,38 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>553483</v>
+        <v>553494</v>
       </c>
       <c r="R68" t="n">
-        <v>6704957</v>
+        <v>6705017</v>
       </c>
       <c r="S68" t="n">
         <v>15</v>
@@ -8189,7 +8176,6 @@
       <c r="AE68" t="b">
         <v>0</v>
       </c>
-      <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
       </c>
@@ -8208,10 +8194,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>112254049</v>
+        <v>112254001</v>
       </c>
       <c r="B69" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8248,10 +8234,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>553333</v>
+        <v>553497</v>
       </c>
       <c r="R69" t="n">
-        <v>6704880</v>
+        <v>6705035</v>
       </c>
       <c r="S69" t="n">
         <v>15</v>
@@ -8310,10 +8296,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>112254025</v>
+        <v>112253992</v>
       </c>
       <c r="B70" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8343,17 +8329,33 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>553447</v>
+        <v>553517</v>
       </c>
       <c r="R70" t="n">
-        <v>6704809</v>
+        <v>6705425</v>
       </c>
       <c r="S70" t="n">
         <v>15</v>
@@ -8394,6 +8396,7 @@
       <c r="AE70" t="b">
         <v>0</v>
       </c>
+      <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="b">
         <v>0</v>
       </c>
@@ -8412,10 +8415,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112254008</v>
+        <v>112249635</v>
       </c>
       <c r="B71" t="n">
-        <v>96720</v>
+        <v>56430</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8424,41 +8427,47 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Morkullberget, Dlr</t>
+          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>553485</v>
+        <v>553482</v>
       </c>
       <c r="R71" t="n">
-        <v>6704932</v>
+        <v>6705517</v>
       </c>
       <c r="S71" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -8485,9 +8494,24 @@
           <t>2023-09-22</t>
         </is>
       </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>15:16</t>
+        </is>
+      </c>
       <c r="AA71" t="inlineStr">
         <is>
           <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>15:16</t>
+        </is>
+      </c>
+      <c r="AC71" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8502,22 +8526,22 @@
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AX71" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AY71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112254031</v>
+        <v>112253988</v>
       </c>
       <c r="B72" t="n">
-        <v>5135</v>
+        <v>89993</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8526,47 +8550,38 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>105930</v>
+        <v>1209</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>553400</v>
+        <v>553525</v>
       </c>
       <c r="R72" t="n">
-        <v>6704775</v>
+        <v>6705427</v>
       </c>
       <c r="S72" t="n">
         <v>15</v>
@@ -8607,7 +8622,6 @@
       <c r="AE72" t="b">
         <v>0</v>
       </c>
-      <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="b">
         <v>0</v>
       </c>
@@ -8626,10 +8640,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>112254002</v>
+        <v>112254027</v>
       </c>
       <c r="B73" t="n">
-        <v>96720</v>
+        <v>5113</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8638,38 +8652,47 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>553497</v>
+        <v>553423</v>
       </c>
       <c r="R73" t="n">
-        <v>6705280</v>
+        <v>6704779</v>
       </c>
       <c r="S73" t="n">
         <v>15</v>
@@ -8710,6 +8733,7 @@
       <c r="AE73" t="b">
         <v>0</v>
       </c>
+      <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="b">
         <v>0</v>
       </c>
@@ -8728,10 +8752,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>112254027</v>
+        <v>112254012</v>
       </c>
       <c r="B74" t="n">
-        <v>5113</v>
+        <v>96735</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8740,47 +8764,38 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>553423</v>
+        <v>553479</v>
       </c>
       <c r="R74" t="n">
-        <v>6704779</v>
+        <v>6705223</v>
       </c>
       <c r="S74" t="n">
         <v>15</v>
@@ -8821,7 +8836,6 @@
       <c r="AE74" t="b">
         <v>0</v>
       </c>
-      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
       </c>
@@ -8840,10 +8854,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112254037</v>
+        <v>112254014</v>
       </c>
       <c r="B75" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8880,10 +8894,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>553386</v>
+        <v>553479</v>
       </c>
       <c r="R75" t="n">
-        <v>6704753</v>
+        <v>6705174</v>
       </c>
       <c r="S75" t="n">
         <v>15</v>
@@ -8942,10 +8956,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112254019</v>
+        <v>112254010</v>
       </c>
       <c r="B76" t="n">
-        <v>89058</v>
+        <v>89072</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -8975,28 +8989,17 @@
           <t>R.H.Petersen</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>553459</v>
+        <v>553481</v>
       </c>
       <c r="R76" t="n">
-        <v>6705387</v>
+        <v>6705395</v>
       </c>
       <c r="S76" t="n">
         <v>15</v>
@@ -9037,7 +9040,6 @@
       <c r="AE76" t="b">
         <v>0</v>
       </c>
-      <c r="AF76" t="inlineStr"/>
       <c r="AG76" t="b">
         <v>0</v>
       </c>
@@ -9056,10 +9058,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>112254051</v>
+        <v>112254003</v>
       </c>
       <c r="B77" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9096,10 +9098,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>553333</v>
+        <v>553494</v>
       </c>
       <c r="R77" t="n">
-        <v>6704858</v>
+        <v>6705007</v>
       </c>
       <c r="S77" t="n">
         <v>15</v>
@@ -9158,10 +9160,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>112249635</v>
+        <v>112254040</v>
       </c>
       <c r="B78" t="n">
-        <v>56430</v>
+        <v>96735</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9170,47 +9172,53 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
+          <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>553482</v>
+        <v>553358</v>
       </c>
       <c r="R78" t="n">
-        <v>6705517</v>
+        <v>6704817</v>
       </c>
       <c r="S78" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -9237,54 +9245,40 @@
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="Z78" t="inlineStr">
-        <is>
-          <t>15:16</t>
-        </is>
-      </c>
       <c r="AA78" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="AB78" t="inlineStr">
-        <is>
-          <t>15:16</t>
-        </is>
-      </c>
-      <c r="AC78" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD78" t="b">
         <v>0</v>
       </c>
       <c r="AE78" t="b">
         <v>0</v>
       </c>
+      <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="b">
         <v>0</v>
       </c>
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss, fanny westling</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>112253987</v>
+        <v>112253998</v>
       </c>
       <c r="B79" t="n">
-        <v>89539</v>
+        <v>96735</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9293,25 +9287,25 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9321,10 +9315,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>553525</v>
+        <v>553506</v>
       </c>
       <c r="R79" t="n">
-        <v>6705418</v>
+        <v>6705290</v>
       </c>
       <c r="S79" t="n">
         <v>15</v>
@@ -9383,10 +9377,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>112254013</v>
+        <v>112254047</v>
       </c>
       <c r="B80" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9423,10 +9417,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>553479</v>
+        <v>553343</v>
       </c>
       <c r="R80" t="n">
-        <v>6705228</v>
+        <v>6704939</v>
       </c>
       <c r="S80" t="n">
         <v>15</v>
@@ -9485,10 +9479,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>112254020</v>
+        <v>112254039</v>
       </c>
       <c r="B81" t="n">
-        <v>89879</v>
+        <v>96735</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9501,21 +9495,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>2062</v>
+        <v>220787</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9525,10 +9519,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>553455</v>
+        <v>553361</v>
       </c>
       <c r="R81" t="n">
-        <v>6705497</v>
+        <v>6704802</v>
       </c>
       <c r="S81" t="n">
         <v>15</v>
@@ -9569,7 +9563,6 @@
       <c r="AE81" t="b">
         <v>0</v>
       </c>
-      <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="b">
         <v>0</v>
       </c>
@@ -9588,10 +9581,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>112254022</v>
+        <v>112254037</v>
       </c>
       <c r="B82" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9621,29 +9614,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>553450</v>
+        <v>553386</v>
       </c>
       <c r="R82" t="n">
-        <v>6705147</v>
+        <v>6704753</v>
       </c>
       <c r="S82" t="n">
         <v>15</v>
@@ -9684,7 +9665,6 @@
       <c r="AE82" t="b">
         <v>0</v>
       </c>
-      <c r="AF82" t="inlineStr"/>
       <c r="AG82" t="b">
         <v>0</v>
       </c>
@@ -9703,10 +9683,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>112254040</v>
+        <v>112253977</v>
       </c>
       <c r="B83" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9736,17 +9716,13 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
@@ -9755,10 +9731,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>553358</v>
+        <v>553575</v>
       </c>
       <c r="R83" t="n">
-        <v>6704817</v>
+        <v>6705296</v>
       </c>
       <c r="S83" t="n">
         <v>15</v>
@@ -9818,10 +9794,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>112253991</v>
+        <v>112254031</v>
       </c>
       <c r="B84" t="n">
-        <v>8377</v>
+        <v>5135</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9834,34 +9810,43 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>106545</v>
+        <v>105930</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>553522</v>
+        <v>553400</v>
       </c>
       <c r="R84" t="n">
-        <v>6705362</v>
+        <v>6704775</v>
       </c>
       <c r="S84" t="n">
         <v>15</v>
@@ -9902,6 +9887,7 @@
       <c r="AE84" t="b">
         <v>0</v>
       </c>
+      <c r="AF84" t="inlineStr"/>
       <c r="AG84" t="b">
         <v>0</v>
       </c>
@@ -9920,10 +9906,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>112253994</v>
+        <v>112254025</v>
       </c>
       <c r="B85" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -9960,10 +9946,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>553513</v>
+        <v>553447</v>
       </c>
       <c r="R85" t="n">
-        <v>6705290</v>
+        <v>6704809</v>
       </c>
       <c r="S85" t="n">
         <v>15</v>
@@ -10022,10 +10008,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>112254028</v>
+        <v>112254006</v>
       </c>
       <c r="B86" t="n">
-        <v>89539</v>
+        <v>96735</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10034,38 +10020,50 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>553418</v>
+        <v>553489</v>
       </c>
       <c r="R86" t="n">
-        <v>6705049</v>
+        <v>6704972</v>
       </c>
       <c r="S86" t="n">
         <v>15</v>
@@ -10106,6 +10104,7 @@
       <c r="AE86" t="b">
         <v>0</v>
       </c>
+      <c r="AF86" t="inlineStr"/>
       <c r="AG86" t="b">
         <v>0</v>
       </c>
@@ -10124,10 +10123,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>112254047</v>
+        <v>112253993</v>
       </c>
       <c r="B87" t="n">
-        <v>96720</v>
+        <v>56430</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10136,38 +10135,46 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>553343</v>
+        <v>553514</v>
       </c>
       <c r="R87" t="n">
-        <v>6704939</v>
+        <v>6705442</v>
       </c>
       <c r="S87" t="n">
         <v>15</v>
@@ -10200,6 +10207,11 @@
       <c r="AA87" t="inlineStr">
         <is>
           <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AC87" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10226,10 +10238,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>112254012</v>
+        <v>112254051</v>
       </c>
       <c r="B88" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10266,10 +10278,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>553479</v>
+        <v>553333</v>
       </c>
       <c r="R88" t="n">
-        <v>6705223</v>
+        <v>6704858</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10328,10 +10340,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>112254006</v>
+        <v>112254016</v>
       </c>
       <c r="B89" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10361,29 +10373,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>553489</v>
+        <v>553476</v>
       </c>
       <c r="R89" t="n">
-        <v>6704972</v>
+        <v>6704913</v>
       </c>
       <c r="S89" t="n">
         <v>15</v>
@@ -10424,7 +10424,6 @@
       <c r="AE89" t="b">
         <v>0</v>
       </c>
-      <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="b">
         <v>0</v>
       </c>
@@ -10443,10 +10442,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>112253992</v>
+        <v>112254013</v>
       </c>
       <c r="B90" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10476,33 +10475,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>553517</v>
+        <v>553479</v>
       </c>
       <c r="R90" t="n">
-        <v>6705425</v>
+        <v>6705228</v>
       </c>
       <c r="S90" t="n">
         <v>15</v>
@@ -10543,7 +10526,6 @@
       <c r="AE90" t="b">
         <v>0</v>
       </c>
-      <c r="AF90" t="inlineStr"/>
       <c r="AG90" t="b">
         <v>0</v>
       </c>
@@ -10562,10 +10544,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>112253981</v>
+        <v>112254035</v>
       </c>
       <c r="B91" t="n">
-        <v>89539</v>
+        <v>89553</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10602,10 +10584,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>553541</v>
+        <v>553389</v>
       </c>
       <c r="R91" t="n">
-        <v>6705249</v>
+        <v>6704754</v>
       </c>
       <c r="S91" t="n">
         <v>15</v>
@@ -10667,7 +10649,7 @@
         <v>112253985</v>
       </c>
       <c r="B92" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10779,10 +10761,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>112253983</v>
+        <v>112254026</v>
       </c>
       <c r="B93" t="n">
-        <v>89979</v>
+        <v>96735</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10795,21 +10777,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10819,10 +10801,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>553540</v>
+        <v>553439</v>
       </c>
       <c r="R93" t="n">
-        <v>6705286</v>
+        <v>6705097</v>
       </c>
       <c r="S93" t="n">
         <v>15</v>
@@ -10881,10 +10863,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>112254000</v>
+        <v>112253994</v>
       </c>
       <c r="B94" t="n">
-        <v>56430</v>
+        <v>96735</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -10893,46 +10875,38 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>553499</v>
+        <v>553513</v>
       </c>
       <c r="R94" t="n">
-        <v>6705052</v>
+        <v>6705290</v>
       </c>
       <c r="S94" t="n">
         <v>15</v>
@@ -10965,11 +10939,6 @@
       <c r="AA94" t="inlineStr">
         <is>
           <t>2023-09-22</t>
-        </is>
-      </c>
-      <c r="AC94" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -10996,10 +10965,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>112254014</v>
+        <v>112254020</v>
       </c>
       <c r="B95" t="n">
-        <v>96720</v>
+        <v>89893</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11012,21 +10981,21 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>220787</v>
+        <v>2062</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11036,10 +11005,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>553479</v>
+        <v>553455</v>
       </c>
       <c r="R95" t="n">
-        <v>6705174</v>
+        <v>6705497</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11080,6 +11049,7 @@
       <c r="AE95" t="b">
         <v>0</v>
       </c>
+      <c r="AF95" t="inlineStr"/>
       <c r="AG95" t="b">
         <v>0</v>
       </c>
@@ -11098,10 +11068,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>112253980</v>
+        <v>112253999</v>
       </c>
       <c r="B96" t="n">
-        <v>89539</v>
+        <v>56430</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11114,34 +11084,42 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>553540</v>
+        <v>553502</v>
       </c>
       <c r="R96" t="n">
-        <v>6705286</v>
+        <v>6704909</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11174,6 +11152,11 @@
       <c r="AA96" t="inlineStr">
         <is>
           <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AC96" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11200,10 +11183,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>112254004</v>
+        <v>112254048</v>
       </c>
       <c r="B97" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11240,10 +11223,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>553496</v>
+        <v>553339</v>
       </c>
       <c r="R97" t="n">
-        <v>6705263</v>
+        <v>6705001</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11302,10 +11285,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>112254001</v>
+        <v>112254004</v>
       </c>
       <c r="B98" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11342,10 +11325,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>553497</v>
+        <v>553496</v>
       </c>
       <c r="R98" t="n">
-        <v>6705035</v>
+        <v>6705263</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -11404,10 +11387,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>112253998</v>
+        <v>112254044</v>
       </c>
       <c r="B99" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11437,17 +11420,29 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>553506</v>
+        <v>553351</v>
       </c>
       <c r="R99" t="n">
-        <v>6705290</v>
+        <v>6704849</v>
       </c>
       <c r="S99" t="n">
         <v>15</v>
@@ -11488,6 +11483,7 @@
       <c r="AE99" t="b">
         <v>0</v>
       </c>
+      <c r="AF99" t="inlineStr"/>
       <c r="AG99" t="b">
         <v>0</v>
       </c>
@@ -11506,10 +11502,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>112254041</v>
+        <v>112254021</v>
       </c>
       <c r="B100" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11541,7 +11537,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -11549,7 +11545,11 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
       <c r="L100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
@@ -11558,10 +11558,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>553358</v>
+        <v>553450</v>
       </c>
       <c r="R100" t="n">
-        <v>6704825</v>
+        <v>6705143</v>
       </c>
       <c r="S100" t="n">
         <v>15</v>
@@ -11621,10 +11621,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>112254043</v>
+        <v>112254045</v>
       </c>
       <c r="B101" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11661,10 +11661,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>553352</v>
+        <v>553351</v>
       </c>
       <c r="R101" t="n">
-        <v>6704852</v>
+        <v>6704833</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -11723,10 +11723,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>112254039</v>
+        <v>112254011</v>
       </c>
       <c r="B102" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11763,10 +11763,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>553361</v>
+        <v>553479</v>
       </c>
       <c r="R102" t="n">
-        <v>6704802</v>
+        <v>6704917</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -11825,10 +11825,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>112254023</v>
+        <v>112253995</v>
       </c>
       <c r="B103" t="n">
-        <v>89539</v>
+        <v>96735</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -11837,38 +11837,50 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>553449</v>
+        <v>553512</v>
       </c>
       <c r="R103" t="n">
-        <v>6705492</v>
+        <v>6705338</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -11909,6 +11921,7 @@
       <c r="AE103" t="b">
         <v>0</v>
       </c>
+      <c r="AF103" t="inlineStr"/>
       <c r="AG103" t="b">
         <v>0</v>
       </c>
@@ -11927,10 +11940,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>112254044</v>
+        <v>112254043</v>
       </c>
       <c r="B104" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -11960,29 +11973,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>553351</v>
+        <v>553352</v>
       </c>
       <c r="R104" t="n">
-        <v>6704849</v>
+        <v>6704852</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12023,7 +12024,6 @@
       <c r="AE104" t="b">
         <v>0</v>
       </c>
-      <c r="AF104" t="inlineStr"/>
       <c r="AG104" t="b">
         <v>0</v>
       </c>
@@ -12042,10 +12042,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>112254048</v>
+        <v>112254032</v>
       </c>
       <c r="B105" t="n">
-        <v>96720</v>
+        <v>89553</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12054,25 +12054,25 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12082,10 +12082,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>553339</v>
+        <v>553397</v>
       </c>
       <c r="R105" t="n">
-        <v>6705001</v>
+        <v>6705068</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12144,10 +12144,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>112254029</v>
+        <v>112254046</v>
       </c>
       <c r="B106" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12184,10 +12184,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>553417</v>
+        <v>553347</v>
       </c>
       <c r="R106" t="n">
-        <v>6704775</v>
+        <v>6704930</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12246,10 +12246,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>112254005</v>
+        <v>112254049</v>
       </c>
       <c r="B107" t="n">
-        <v>89503</v>
+        <v>96735</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12258,25 +12258,25 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12286,10 +12286,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>553494</v>
+        <v>553333</v>
       </c>
       <c r="R107" t="n">
-        <v>6705017</v>
+        <v>6704880</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -12348,10 +12348,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>112326491</v>
+        <v>112326464</v>
       </c>
       <c r="B108" t="n">
-        <v>96720</v>
+        <v>56430</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -12360,31 +12360,31 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
       <c r="P108" t="inlineStr">
         <is>
@@ -12392,10 +12392,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>553456</v>
+        <v>553445</v>
       </c>
       <c r="R108" t="n">
-        <v>6704987</v>
+        <v>6705069</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -12430,13 +12430,17 @@
           <t>2023-09-22</t>
         </is>
       </c>
+      <c r="AC108" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD108" t="b">
         <v>0</v>
       </c>
       <c r="AE108" t="b">
         <v>0</v>
       </c>
-      <c r="AF108" t="inlineStr"/>
       <c r="AG108" t="b">
         <v>0</v>
       </c>
@@ -12455,10 +12459,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>112326482</v>
+        <v>112248494</v>
       </c>
       <c r="B109" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -12489,23 +12493,20 @@
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="N109" t="inlineStr"/>
       <c r="P109" t="inlineStr">
         <is>
-          <t>Amshyttan, Dlr</t>
+          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>553444</v>
+        <v>553470</v>
       </c>
       <c r="R109" t="n">
-        <v>6705045</v>
+        <v>6705210</v>
       </c>
       <c r="S109" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T109" t="inlineStr">
         <is>
@@ -12532,18 +12533,27 @@
           <t>2023-09-22</t>
         </is>
       </c>
+      <c r="Z109" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
       <c r="AA109" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
       </c>
+      <c r="AB109" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
       <c r="AD109" t="b">
         <v>0</v>
       </c>
       <c r="AE109" t="b">
         <v>0</v>
       </c>
-      <c r="AF109" t="inlineStr"/>
       <c r="AG109" t="b">
         <v>0</v>
       </c>
@@ -12562,10 +12572,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>112326437</v>
+        <v>112249511</v>
       </c>
       <c r="B110" t="n">
-        <v>96720</v>
+        <v>89993</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -12578,41 +12588,38 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="N110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
-          <t>Amshyttan, Dlr</t>
+          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>553404</v>
+        <v>553517</v>
       </c>
       <c r="R110" t="n">
-        <v>6705030</v>
+        <v>6705424</v>
       </c>
       <c r="S110" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T110" t="inlineStr">
         <is>
@@ -12639,18 +12646,27 @@
           <t>2023-09-22</t>
         </is>
       </c>
+      <c r="Z110" t="inlineStr">
+        <is>
+          <t>15:08</t>
+        </is>
+      </c>
       <c r="AA110" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
       </c>
+      <c r="AB110" t="inlineStr">
+        <is>
+          <t>15:08</t>
+        </is>
+      </c>
       <c r="AD110" t="b">
         <v>0</v>
       </c>
       <c r="AE110" t="b">
         <v>0</v>
       </c>
-      <c r="AF110" t="inlineStr"/>
       <c r="AG110" t="b">
         <v>0</v>
       </c>
@@ -12669,10 +12685,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>112248365</v>
+        <v>112248564</v>
       </c>
       <c r="B111" t="n">
-        <v>96720</v>
+        <v>90128</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -12685,35 +12701,37 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>220787</v>
+        <v>1179</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gräddticka</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Perenniporia subacida</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Peck) Donk</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
           <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>553493</v>
+        <v>553474</v>
       </c>
       <c r="R111" t="n">
-        <v>6705276</v>
+        <v>6705181</v>
       </c>
       <c r="S111" t="n">
         <v>1</v>
@@ -12758,12 +12776,18 @@
           <t>13:47</t>
         </is>
       </c>
+      <c r="AC111" t="inlineStr">
+        <is>
+          <t>Resipunat på mossbevuxen granlåga</t>
+        </is>
+      </c>
       <c r="AD111" t="b">
         <v>0</v>
       </c>
       <c r="AE111" t="b">
         <v>0</v>
       </c>
+      <c r="AF111" t="inlineStr"/>
       <c r="AG111" t="b">
         <v>0</v>
       </c>
@@ -12782,10 +12806,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>112248468</v>
+        <v>112326395</v>
       </c>
       <c r="B112" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -12816,20 +12840,23 @@
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
-          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
+          <t>Amshyttan, Dlr</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>553472</v>
+        <v>553409</v>
       </c>
       <c r="R112" t="n">
-        <v>6705237</v>
+        <v>6705092</v>
       </c>
       <c r="S112" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T112" t="inlineStr">
         <is>
@@ -12856,27 +12883,18 @@
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="Z112" t="inlineStr">
-        <is>
-          <t>13:47</t>
-        </is>
-      </c>
       <c r="AA112" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="AB112" t="inlineStr">
-        <is>
-          <t>13:47</t>
-        </is>
-      </c>
       <c r="AD112" t="b">
         <v>0</v>
       </c>
       <c r="AE112" t="b">
         <v>0</v>
       </c>
+      <c r="AF112" t="inlineStr"/>
       <c r="AG112" t="b">
         <v>0</v>
       </c>
@@ -12895,10 +12913,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>112248564</v>
+        <v>112326482</v>
       </c>
       <c r="B113" t="n">
-        <v>90114</v>
+        <v>96735</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -12911,40 +12929,41 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1179</v>
+        <v>220787</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Gräddticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Perenniporia subacida</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(Peck) Donk</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="N113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
         <is>
-          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
+          <t>Amshyttan, Dlr</t>
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>553474</v>
+        <v>553444</v>
       </c>
       <c r="R113" t="n">
-        <v>6705181</v>
+        <v>6705045</v>
       </c>
       <c r="S113" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T113" t="inlineStr">
         <is>
@@ -12971,24 +12990,9 @@
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="Z113" t="inlineStr">
-        <is>
-          <t>13:47</t>
-        </is>
-      </c>
       <c r="AA113" t="inlineStr">
         <is>
           <t>2023-09-22</t>
-        </is>
-      </c>
-      <c r="AB113" t="inlineStr">
-        <is>
-          <t>13:47</t>
-        </is>
-      </c>
-      <c r="AC113" t="inlineStr">
-        <is>
-          <t>Resipunat på mossbevuxen granlåga</t>
         </is>
       </c>
       <c r="AD113" t="b">
@@ -13016,10 +13020,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>112326464</v>
+        <v>112326426</v>
       </c>
       <c r="B114" t="n">
-        <v>56430</v>
+        <v>96735</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13028,31 +13032,31 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr"/>
       <c r="P114" t="inlineStr">
         <is>
@@ -13060,10 +13064,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>553445</v>
+        <v>553407</v>
       </c>
       <c r="R114" t="n">
-        <v>6705069</v>
+        <v>6705043</v>
       </c>
       <c r="S114" t="n">
         <v>10</v>
@@ -13098,17 +13102,13 @@
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="AC114" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD114" t="b">
         <v>0</v>
       </c>
       <c r="AE114" t="b">
         <v>0</v>
       </c>
+      <c r="AF114" t="inlineStr"/>
       <c r="AG114" t="b">
         <v>0</v>
       </c>
@@ -13127,10 +13127,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>112253984</v>
+        <v>112248387</v>
       </c>
       <c r="B115" t="n">
-        <v>89924</v>
+        <v>96735</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13139,39 +13139,42 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>6040186</v>
+        <v>220787</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="N115" t="inlineStr"/>
       <c r="P115" t="inlineStr">
         <is>
-          <t>Morkullberget, Dlr</t>
+          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>553540</v>
+        <v>553501</v>
       </c>
       <c r="R115" t="n">
-        <v>6705286</v>
+        <v>6705280</v>
       </c>
       <c r="S115" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T115" t="inlineStr">
         <is>
@@ -13198,40 +13201,49 @@
           <t>2023-09-22</t>
         </is>
       </c>
+      <c r="Z115" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
       <c r="AA115" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
       </c>
+      <c r="AB115" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
       <c r="AD115" t="b">
         <v>0</v>
       </c>
       <c r="AE115" t="b">
         <v>0</v>
       </c>
-      <c r="AF115" t="inlineStr"/>
       <c r="AG115" t="b">
         <v>0</v>
       </c>
       <c r="AT115" t="inlineStr"/>
       <c r="AW115" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AX115" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AY115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>112326426</v>
+        <v>112326437</v>
       </c>
       <c r="B116" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13272,10 +13284,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>553407</v>
+        <v>553404</v>
       </c>
       <c r="R116" t="n">
-        <v>6705043</v>
+        <v>6705030</v>
       </c>
       <c r="S116" t="n">
         <v>10</v>
@@ -13335,10 +13347,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>112337718</v>
+        <v>112248365</v>
       </c>
       <c r="B117" t="n">
-        <v>89820</v>
+        <v>96735</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -13347,42 +13359,42 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="P117" t="inlineStr">
         <is>
-          <t>Flyttjesundet (Flyttjesundet), Dlr</t>
+          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>553390</v>
+        <v>553493</v>
       </c>
       <c r="R117" t="n">
-        <v>6704781</v>
+        <v>6705276</v>
       </c>
       <c r="S117" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T117" t="inlineStr">
         <is>
@@ -13406,22 +13418,22 @@
       </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>2023-05-30</t>
+          <t>2023-09-22</t>
         </is>
       </c>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>20:16</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AA117" t="inlineStr">
         <is>
-          <t>2023-05-30</t>
+          <t>2023-09-22</t>
         </is>
       </c>
       <c r="AB117" t="inlineStr">
         <is>
-          <t>20:16</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AD117" t="b">
@@ -13436,22 +13448,22 @@
       <c r="AT117" t="inlineStr"/>
       <c r="AW117" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AX117" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AY117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>112326395</v>
+        <v>112337718</v>
       </c>
       <c r="B118" t="n">
-        <v>96720</v>
+        <v>89834</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -13460,45 +13472,42 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="N118" t="inlineStr"/>
       <c r="P118" t="inlineStr">
         <is>
-          <t>Amshyttan, Dlr</t>
+          <t>Flyttjesundet (Flyttjesundet), Dlr</t>
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>553409</v>
+        <v>553390</v>
       </c>
       <c r="R118" t="n">
-        <v>6705092</v>
+        <v>6704781</v>
       </c>
       <c r="S118" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T118" t="inlineStr">
         <is>
@@ -13522,12 +13531,22 @@
       </c>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>2023-09-22</t>
+          <t>2023-05-30</t>
+        </is>
+      </c>
+      <c r="Z118" t="inlineStr">
+        <is>
+          <t>20:16</t>
         </is>
       </c>
       <c r="AA118" t="inlineStr">
         <is>
-          <t>2023-09-22</t>
+          <t>2023-05-30</t>
+        </is>
+      </c>
+      <c r="AB118" t="inlineStr">
+        <is>
+          <t>20:16</t>
         </is>
       </c>
       <c r="AD118" t="b">
@@ -13536,29 +13555,28 @@
       <c r="AE118" t="b">
         <v>0</v>
       </c>
-      <c r="AF118" t="inlineStr"/>
       <c r="AG118" t="b">
         <v>0</v>
       </c>
       <c r="AT118" t="inlineStr"/>
       <c r="AW118" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX118" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>112248494</v>
+        <v>112326491</v>
       </c>
       <c r="B119" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -13589,20 +13607,23 @@
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
       <c r="P119" t="inlineStr">
         <is>
-          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
+          <t>Amshyttan, Dlr</t>
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>553470</v>
+        <v>553456</v>
       </c>
       <c r="R119" t="n">
-        <v>6705210</v>
+        <v>6704987</v>
       </c>
       <c r="S119" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T119" t="inlineStr">
         <is>
@@ -13629,27 +13650,18 @@
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="Z119" t="inlineStr">
-        <is>
-          <t>13:47</t>
-        </is>
-      </c>
       <c r="AA119" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="AB119" t="inlineStr">
-        <is>
-          <t>13:47</t>
-        </is>
-      </c>
       <c r="AD119" t="b">
         <v>0</v>
       </c>
       <c r="AE119" t="b">
         <v>0</v>
       </c>
+      <c r="AF119" t="inlineStr"/>
       <c r="AG119" t="b">
         <v>0</v>
       </c>
@@ -13668,10 +13680,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>112248387</v>
+        <v>112248468</v>
       </c>
       <c r="B120" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -13709,10 +13721,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>553501</v>
+        <v>553472</v>
       </c>
       <c r="R120" t="n">
-        <v>6705280</v>
+        <v>6705237</v>
       </c>
       <c r="S120" t="n">
         <v>1</v>
@@ -13781,10 +13793,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>112249511</v>
+        <v>112253984</v>
       </c>
       <c r="B121" t="n">
-        <v>89979</v>
+        <v>89938</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -13793,42 +13805,39 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1209</v>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Rynkskinn</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
       <c r="P121" t="inlineStr">
         <is>
-          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
+          <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>553517</v>
+        <v>553540</v>
       </c>
       <c r="R121" t="n">
-        <v>6705424</v>
+        <v>6705286</v>
       </c>
       <c r="S121" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T121" t="inlineStr">
         <is>
@@ -13855,39 +13864,30 @@
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="Z121" t="inlineStr">
-        <is>
-          <t>15:08</t>
-        </is>
-      </c>
       <c r="AA121" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="AB121" t="inlineStr">
-        <is>
-          <t>15:08</t>
-        </is>
-      </c>
       <c r="AD121" t="b">
         <v>0</v>
       </c>
       <c r="AE121" t="b">
         <v>0</v>
       </c>
+      <c r="AF121" t="inlineStr"/>
       <c r="AG121" t="b">
         <v>0</v>
       </c>
       <c r="AT121" t="inlineStr"/>
       <c r="AW121" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX121" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss, fanny westling</t>
         </is>
       </c>
       <c r="AY121" t="inlineStr"/>

--- a/artfynd/A 18040-2021.xlsx
+++ b/artfynd/A 18040-2021.xlsx
@@ -5735,7 +5735,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112254008</v>
+        <v>112253977</v>
       </c>
       <c r="B46" t="n">
         <v>96735</v>
@@ -5769,16 +5769,24 @@
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>553485</v>
+        <v>553575</v>
       </c>
       <c r="R46" t="n">
-        <v>6704932</v>
+        <v>6705296</v>
       </c>
       <c r="S46" t="n">
         <v>15</v>
@@ -5819,6 +5827,7 @@
       <c r="AE46" t="b">
         <v>0</v>
       </c>
+      <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="b">
         <v>0</v>
       </c>
@@ -5837,10 +5846,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112253981</v>
+        <v>112253999</v>
       </c>
       <c r="B47" t="n">
-        <v>89553</v>
+        <v>56430</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5853,34 +5862,42 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>553541</v>
+        <v>553502</v>
       </c>
       <c r="R47" t="n">
-        <v>6705249</v>
+        <v>6704909</v>
       </c>
       <c r="S47" t="n">
         <v>15</v>
@@ -5913,6 +5930,11 @@
       <c r="AA47" t="inlineStr">
         <is>
           <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5939,7 +5961,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112254002</v>
+        <v>112253992</v>
       </c>
       <c r="B48" t="n">
         <v>96735</v>
@@ -5972,17 +5994,33 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>553497</v>
+        <v>553517</v>
       </c>
       <c r="R48" t="n">
-        <v>6705280</v>
+        <v>6705425</v>
       </c>
       <c r="S48" t="n">
         <v>15</v>
@@ -6023,6 +6061,7 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6041,10 +6080,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112254028</v>
+        <v>112253988</v>
       </c>
       <c r="B49" t="n">
-        <v>89553</v>
+        <v>89993</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6053,25 +6092,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6081,10 +6120,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>553418</v>
+        <v>553525</v>
       </c>
       <c r="R49" t="n">
-        <v>6705049</v>
+        <v>6705427</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -6143,7 +6182,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112253996</v>
+        <v>112254026</v>
       </c>
       <c r="B50" t="n">
         <v>96735</v>
@@ -6183,10 +6222,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>553511</v>
+        <v>553439</v>
       </c>
       <c r="R50" t="n">
-        <v>6705107</v>
+        <v>6705097</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -6245,10 +6284,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112254041</v>
+        <v>112253980</v>
       </c>
       <c r="B51" t="n">
-        <v>96735</v>
+        <v>89553</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6257,50 +6296,38 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>553358</v>
+        <v>553540</v>
       </c>
       <c r="R51" t="n">
-        <v>6704825</v>
+        <v>6705286</v>
       </c>
       <c r="S51" t="n">
         <v>15</v>
@@ -6341,7 +6368,6 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
-      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -6360,7 +6386,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112254009</v>
+        <v>112254048</v>
       </c>
       <c r="B52" t="n">
         <v>96735</v>
@@ -6393,29 +6419,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>553483</v>
+        <v>553339</v>
       </c>
       <c r="R52" t="n">
-        <v>6704957</v>
+        <v>6705001</v>
       </c>
       <c r="S52" t="n">
         <v>15</v>
@@ -6456,7 +6470,6 @@
       <c r="AE52" t="b">
         <v>0</v>
       </c>
-      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -6475,10 +6488,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112254022</v>
+        <v>112253981</v>
       </c>
       <c r="B53" t="n">
-        <v>96735</v>
+        <v>89553</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6487,50 +6500,38 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>553450</v>
+        <v>553541</v>
       </c>
       <c r="R53" t="n">
-        <v>6705147</v>
+        <v>6705249</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -6571,7 +6572,6 @@
       <c r="AE53" t="b">
         <v>0</v>
       </c>
-      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
       </c>
@@ -6590,10 +6590,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112254007</v>
+        <v>112253998</v>
       </c>
       <c r="B54" t="n">
-        <v>90826</v>
+        <v>96735</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6602,25 +6602,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4366</v>
+        <v>220787</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6630,10 +6630,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>553484</v>
+        <v>553506</v>
       </c>
       <c r="R54" t="n">
-        <v>6705509</v>
+        <v>6705290</v>
       </c>
       <c r="S54" t="n">
         <v>15</v>
@@ -6692,10 +6692,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112253980</v>
+        <v>112254045</v>
       </c>
       <c r="B55" t="n">
-        <v>89553</v>
+        <v>96735</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6704,25 +6704,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6732,10 +6732,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>553540</v>
+        <v>553351</v>
       </c>
       <c r="R55" t="n">
-        <v>6705286</v>
+        <v>6704833</v>
       </c>
       <c r="S55" t="n">
         <v>15</v>
@@ -6794,10 +6794,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112253991</v>
+        <v>112254012</v>
       </c>
       <c r="B56" t="n">
-        <v>8377</v>
+        <v>96735</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6806,25 +6806,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>106545</v>
+        <v>220787</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>553522</v>
+        <v>553479</v>
       </c>
       <c r="R56" t="n">
-        <v>6705362</v>
+        <v>6705223</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -6896,10 +6896,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112254023</v>
+        <v>112253985</v>
       </c>
       <c r="B57" t="n">
-        <v>89553</v>
+        <v>96735</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6908,38 +6908,50 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>553449</v>
+        <v>553531</v>
       </c>
       <c r="R57" t="n">
-        <v>6705492</v>
+        <v>6705240</v>
       </c>
       <c r="S57" t="n">
         <v>15</v>
@@ -6980,6 +6992,7 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
+      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -6998,10 +7011,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112254019</v>
+        <v>112254008</v>
       </c>
       <c r="B58" t="n">
-        <v>89072</v>
+        <v>96735</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7010,49 +7023,38 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>256703</v>
+        <v>220787</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>553459</v>
+        <v>553485</v>
       </c>
       <c r="R58" t="n">
-        <v>6705387</v>
+        <v>6704932</v>
       </c>
       <c r="S58" t="n">
         <v>15</v>
@@ -7093,7 +7095,6 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
-      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -7112,10 +7113,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112253990</v>
+        <v>112254052</v>
       </c>
       <c r="B59" t="n">
-        <v>56430</v>
+        <v>96735</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7124,35 +7125,39 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
@@ -7160,10 +7165,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>553523</v>
+        <v>553330</v>
       </c>
       <c r="R59" t="n">
-        <v>6705360</v>
+        <v>6704878</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7198,17 +7203,13 @@
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD59" t="b">
         <v>0</v>
       </c>
       <c r="AE59" t="b">
         <v>0</v>
       </c>
+      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>
@@ -7227,10 +7228,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112254000</v>
+        <v>112254028</v>
       </c>
       <c r="B60" t="n">
-        <v>56430</v>
+        <v>89553</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7243,42 +7244,34 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>553499</v>
+        <v>553418</v>
       </c>
       <c r="R60" t="n">
-        <v>6705052</v>
+        <v>6705049</v>
       </c>
       <c r="S60" t="n">
         <v>15</v>
@@ -7311,11 +7304,6 @@
       <c r="AA60" t="inlineStr">
         <is>
           <t>2023-09-22</t>
-        </is>
-      </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7342,7 +7330,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112254052</v>
+        <v>112254049</v>
       </c>
       <c r="B61" t="n">
         <v>96735</v>
@@ -7375,29 +7363,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>553330</v>
+        <v>553333</v>
       </c>
       <c r="R61" t="n">
-        <v>6704878</v>
+        <v>6704880</v>
       </c>
       <c r="S61" t="n">
         <v>15</v>
@@ -7438,7 +7414,6 @@
       <c r="AE61" t="b">
         <v>0</v>
       </c>
-      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
       </c>
@@ -7457,7 +7432,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112254029</v>
+        <v>112254040</v>
       </c>
       <c r="B62" t="n">
         <v>96735</v>
@@ -7490,17 +7465,29 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>553417</v>
+        <v>553358</v>
       </c>
       <c r="R62" t="n">
-        <v>6704775</v>
+        <v>6704817</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>
@@ -7541,6 +7528,7 @@
       <c r="AE62" t="b">
         <v>0</v>
       </c>
+      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
       </c>
@@ -7559,10 +7547,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112254015</v>
+        <v>112254003</v>
       </c>
       <c r="B63" t="n">
-        <v>5135</v>
+        <v>96735</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7571,47 +7559,38 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>105930</v>
+        <v>220787</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>553476</v>
+        <v>553494</v>
       </c>
       <c r="R63" t="n">
-        <v>6704913</v>
+        <v>6705007</v>
       </c>
       <c r="S63" t="n">
         <v>15</v>
@@ -7652,7 +7631,6 @@
       <c r="AE63" t="b">
         <v>0</v>
       </c>
-      <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="b">
         <v>0</v>
       </c>
@@ -7671,10 +7649,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112253978</v>
+        <v>112254046</v>
       </c>
       <c r="B64" t="n">
-        <v>89553</v>
+        <v>96735</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7683,25 +7661,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7711,10 +7689,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>553546</v>
+        <v>553347</v>
       </c>
       <c r="R64" t="n">
-        <v>6705297</v>
+        <v>6704930</v>
       </c>
       <c r="S64" t="n">
         <v>15</v>
@@ -7773,10 +7751,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>112253983</v>
+        <v>112253994</v>
       </c>
       <c r="B65" t="n">
-        <v>89993</v>
+        <v>96735</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7789,21 +7767,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7813,10 +7791,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>553540</v>
+        <v>553513</v>
       </c>
       <c r="R65" t="n">
-        <v>6705286</v>
+        <v>6705290</v>
       </c>
       <c r="S65" t="n">
         <v>15</v>
@@ -7875,7 +7853,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112253986</v>
+        <v>112254013</v>
       </c>
       <c r="B66" t="n">
         <v>96735</v>
@@ -7908,29 +7886,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>553531</v>
+        <v>553479</v>
       </c>
       <c r="R66" t="n">
-        <v>6705311</v>
+        <v>6705228</v>
       </c>
       <c r="S66" t="n">
         <v>15</v>
@@ -7971,7 +7937,6 @@
       <c r="AE66" t="b">
         <v>0</v>
       </c>
-      <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="b">
         <v>0</v>
       </c>
@@ -7990,10 +7955,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112253987</v>
+        <v>112254006</v>
       </c>
       <c r="B67" t="n">
-        <v>89553</v>
+        <v>96735</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8002,38 +7967,50 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>553525</v>
+        <v>553489</v>
       </c>
       <c r="R67" t="n">
-        <v>6705418</v>
+        <v>6704972</v>
       </c>
       <c r="S67" t="n">
         <v>15</v>
@@ -8074,6 +8051,7 @@
       <c r="AE67" t="b">
         <v>0</v>
       </c>
+      <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="b">
         <v>0</v>
       </c>
@@ -8092,10 +8070,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>112254005</v>
+        <v>112253990</v>
       </c>
       <c r="B68" t="n">
-        <v>89517</v>
+        <v>56430</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8104,38 +8082,46 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>553494</v>
+        <v>553523</v>
       </c>
       <c r="R68" t="n">
-        <v>6705017</v>
+        <v>6705360</v>
       </c>
       <c r="S68" t="n">
         <v>15</v>
@@ -8168,6 +8154,11 @@
       <c r="AA68" t="inlineStr">
         <is>
           <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8194,10 +8185,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>112254001</v>
+        <v>112254015</v>
       </c>
       <c r="B69" t="n">
-        <v>96735</v>
+        <v>5135</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8206,38 +8197,47 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>220787</v>
+        <v>105930</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>553497</v>
+        <v>553476</v>
       </c>
       <c r="R69" t="n">
-        <v>6705035</v>
+        <v>6704913</v>
       </c>
       <c r="S69" t="n">
         <v>15</v>
@@ -8278,6 +8278,7 @@
       <c r="AE69" t="b">
         <v>0</v>
       </c>
+      <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="b">
         <v>0</v>
       </c>
@@ -8296,7 +8297,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>112253992</v>
+        <v>112254022</v>
       </c>
       <c r="B70" t="n">
         <v>96735</v>
@@ -8339,11 +8340,7 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
@@ -8352,10 +8349,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>553517</v>
+        <v>553450</v>
       </c>
       <c r="R70" t="n">
-        <v>6705425</v>
+        <v>6705147</v>
       </c>
       <c r="S70" t="n">
         <v>15</v>
@@ -8415,10 +8412,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112249635</v>
+        <v>112254051</v>
       </c>
       <c r="B71" t="n">
-        <v>56430</v>
+        <v>96735</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8427,47 +8424,41 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
+          <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>553482</v>
+        <v>553333</v>
       </c>
       <c r="R71" t="n">
-        <v>6705517</v>
+        <v>6704858</v>
       </c>
       <c r="S71" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -8494,24 +8485,9 @@
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>15:16</t>
-        </is>
-      </c>
       <c r="AA71" t="inlineStr">
         <is>
           <t>2023-09-22</t>
-        </is>
-      </c>
-      <c r="AB71" t="inlineStr">
-        <is>
-          <t>15:16</t>
-        </is>
-      </c>
-      <c r="AC71" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8526,22 +8502,22 @@
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX71" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss, fanny westling</t>
         </is>
       </c>
       <c r="AY71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112253988</v>
+        <v>112253986</v>
       </c>
       <c r="B72" t="n">
-        <v>89993</v>
+        <v>96735</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8554,34 +8530,46 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>553525</v>
+        <v>553531</v>
       </c>
       <c r="R72" t="n">
-        <v>6705427</v>
+        <v>6705311</v>
       </c>
       <c r="S72" t="n">
         <v>15</v>
@@ -8622,6 +8610,7 @@
       <c r="AE72" t="b">
         <v>0</v>
       </c>
+      <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="b">
         <v>0</v>
       </c>
@@ -8640,10 +8629,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>112254027</v>
+        <v>112254032</v>
       </c>
       <c r="B73" t="n">
-        <v>5113</v>
+        <v>89553</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8652,47 +8641,38 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>100526</v>
+        <v>1202</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>553423</v>
+        <v>553397</v>
       </c>
       <c r="R73" t="n">
-        <v>6704779</v>
+        <v>6705068</v>
       </c>
       <c r="S73" t="n">
         <v>15</v>
@@ -8733,7 +8713,6 @@
       <c r="AE73" t="b">
         <v>0</v>
       </c>
-      <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="b">
         <v>0</v>
       </c>
@@ -8752,10 +8731,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>112254012</v>
+        <v>112254031</v>
       </c>
       <c r="B74" t="n">
-        <v>96735</v>
+        <v>5135</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8764,38 +8743,47 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>220787</v>
+        <v>105930</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>553479</v>
+        <v>553400</v>
       </c>
       <c r="R74" t="n">
-        <v>6705223</v>
+        <v>6704775</v>
       </c>
       <c r="S74" t="n">
         <v>15</v>
@@ -8836,6 +8824,7 @@
       <c r="AE74" t="b">
         <v>0</v>
       </c>
+      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
       </c>
@@ -8854,7 +8843,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112254014</v>
+        <v>112254044</v>
       </c>
       <c r="B75" t="n">
         <v>96735</v>
@@ -8887,17 +8876,29 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>553479</v>
+        <v>553351</v>
       </c>
       <c r="R75" t="n">
-        <v>6705174</v>
+        <v>6704849</v>
       </c>
       <c r="S75" t="n">
         <v>15</v>
@@ -8938,6 +8939,7 @@
       <c r="AE75" t="b">
         <v>0</v>
       </c>
+      <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="b">
         <v>0</v>
       </c>
@@ -8956,10 +8958,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112254010</v>
+        <v>112254027</v>
       </c>
       <c r="B76" t="n">
-        <v>89072</v>
+        <v>5113</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -8972,34 +8974,43 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>256703</v>
+        <v>100526</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>553481</v>
+        <v>553423</v>
       </c>
       <c r="R76" t="n">
-        <v>6705395</v>
+        <v>6704779</v>
       </c>
       <c r="S76" t="n">
         <v>15</v>
@@ -9040,6 +9051,7 @@
       <c r="AE76" t="b">
         <v>0</v>
       </c>
+      <c r="AF76" t="inlineStr"/>
       <c r="AG76" t="b">
         <v>0</v>
       </c>
@@ -9058,7 +9070,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>112254003</v>
+        <v>112254043</v>
       </c>
       <c r="B77" t="n">
         <v>96735</v>
@@ -9098,10 +9110,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>553494</v>
+        <v>553352</v>
       </c>
       <c r="R77" t="n">
-        <v>6705007</v>
+        <v>6704852</v>
       </c>
       <c r="S77" t="n">
         <v>15</v>
@@ -9160,7 +9172,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>112254040</v>
+        <v>112254041</v>
       </c>
       <c r="B78" t="n">
         <v>96735</v>
@@ -9215,7 +9227,7 @@
         <v>553358</v>
       </c>
       <c r="R78" t="n">
-        <v>6704817</v>
+        <v>6704825</v>
       </c>
       <c r="S78" t="n">
         <v>15</v>
@@ -9275,10 +9287,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>112253998</v>
+        <v>112254023</v>
       </c>
       <c r="B79" t="n">
-        <v>96735</v>
+        <v>89553</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9287,25 +9299,25 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9315,10 +9327,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>553506</v>
+        <v>553449</v>
       </c>
       <c r="R79" t="n">
-        <v>6705290</v>
+        <v>6705492</v>
       </c>
       <c r="S79" t="n">
         <v>15</v>
@@ -9377,7 +9389,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>112254047</v>
+        <v>112254029</v>
       </c>
       <c r="B80" t="n">
         <v>96735</v>
@@ -9417,10 +9429,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>553343</v>
+        <v>553417</v>
       </c>
       <c r="R80" t="n">
-        <v>6704939</v>
+        <v>6704775</v>
       </c>
       <c r="S80" t="n">
         <v>15</v>
@@ -9479,7 +9491,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>112254039</v>
+        <v>112253995</v>
       </c>
       <c r="B81" t="n">
         <v>96735</v>
@@ -9512,17 +9524,29 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>553361</v>
+        <v>553512</v>
       </c>
       <c r="R81" t="n">
-        <v>6704802</v>
+        <v>6705338</v>
       </c>
       <c r="S81" t="n">
         <v>15</v>
@@ -9563,6 +9587,7 @@
       <c r="AE81" t="b">
         <v>0</v>
       </c>
+      <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="b">
         <v>0</v>
       </c>
@@ -9581,10 +9606,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>112254037</v>
+        <v>112253978</v>
       </c>
       <c r="B82" t="n">
-        <v>96735</v>
+        <v>89553</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9593,25 +9618,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9621,10 +9646,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>553386</v>
+        <v>553546</v>
       </c>
       <c r="R82" t="n">
-        <v>6704753</v>
+        <v>6705297</v>
       </c>
       <c r="S82" t="n">
         <v>15</v>
@@ -9683,10 +9708,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>112253977</v>
+        <v>112254035</v>
       </c>
       <c r="B83" t="n">
-        <v>96735</v>
+        <v>89553</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9695,46 +9720,38 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>553575</v>
+        <v>553389</v>
       </c>
       <c r="R83" t="n">
-        <v>6705296</v>
+        <v>6704754</v>
       </c>
       <c r="S83" t="n">
         <v>15</v>
@@ -9775,7 +9792,6 @@
       <c r="AE83" t="b">
         <v>0</v>
       </c>
-      <c r="AF83" t="inlineStr"/>
       <c r="AG83" t="b">
         <v>0</v>
       </c>
@@ -9794,10 +9810,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>112254031</v>
+        <v>112254014</v>
       </c>
       <c r="B84" t="n">
-        <v>5135</v>
+        <v>96735</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9806,47 +9822,38 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>105930</v>
+        <v>220787</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>553400</v>
+        <v>553479</v>
       </c>
       <c r="R84" t="n">
-        <v>6704775</v>
+        <v>6705174</v>
       </c>
       <c r="S84" t="n">
         <v>15</v>
@@ -9887,7 +9894,6 @@
       <c r="AE84" t="b">
         <v>0</v>
       </c>
-      <c r="AF84" t="inlineStr"/>
       <c r="AG84" t="b">
         <v>0</v>
       </c>
@@ -9906,7 +9912,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>112254025</v>
+        <v>112253996</v>
       </c>
       <c r="B85" t="n">
         <v>96735</v>
@@ -9946,10 +9952,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>553447</v>
+        <v>553511</v>
       </c>
       <c r="R85" t="n">
-        <v>6704809</v>
+        <v>6705107</v>
       </c>
       <c r="S85" t="n">
         <v>15</v>
@@ -10008,10 +10014,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>112254006</v>
+        <v>112254007</v>
       </c>
       <c r="B86" t="n">
-        <v>96735</v>
+        <v>90826</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10020,50 +10026,38 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>220787</v>
+        <v>4366</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>553489</v>
+        <v>553484</v>
       </c>
       <c r="R86" t="n">
-        <v>6704972</v>
+        <v>6705509</v>
       </c>
       <c r="S86" t="n">
         <v>15</v>
@@ -10104,7 +10098,6 @@
       <c r="AE86" t="b">
         <v>0</v>
       </c>
-      <c r="AF86" t="inlineStr"/>
       <c r="AG86" t="b">
         <v>0</v>
       </c>
@@ -10123,10 +10116,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>112253993</v>
+        <v>112254047</v>
       </c>
       <c r="B87" t="n">
-        <v>56430</v>
+        <v>96735</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10135,46 +10128,38 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>553514</v>
+        <v>553343</v>
       </c>
       <c r="R87" t="n">
-        <v>6705442</v>
+        <v>6704939</v>
       </c>
       <c r="S87" t="n">
         <v>15</v>
@@ -10207,11 +10192,6 @@
       <c r="AA87" t="inlineStr">
         <is>
           <t>2023-09-22</t>
-        </is>
-      </c>
-      <c r="AC87" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10238,7 +10218,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>112254051</v>
+        <v>112254002</v>
       </c>
       <c r="B88" t="n">
         <v>96735</v>
@@ -10278,10 +10258,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>553333</v>
+        <v>553497</v>
       </c>
       <c r="R88" t="n">
-        <v>6704858</v>
+        <v>6705280</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10340,10 +10320,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>112254016</v>
+        <v>112254000</v>
       </c>
       <c r="B89" t="n">
-        <v>96735</v>
+        <v>56430</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10352,38 +10332,46 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>553476</v>
+        <v>553499</v>
       </c>
       <c r="R89" t="n">
-        <v>6704913</v>
+        <v>6705052</v>
       </c>
       <c r="S89" t="n">
         <v>15</v>
@@ -10416,6 +10404,11 @@
       <c r="AA89" t="inlineStr">
         <is>
           <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AC89" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10442,10 +10435,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>112254013</v>
+        <v>112254010</v>
       </c>
       <c r="B90" t="n">
-        <v>96735</v>
+        <v>89072</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10454,25 +10447,25 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>220787</v>
+        <v>256703</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -10482,10 +10475,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>553479</v>
+        <v>553481</v>
       </c>
       <c r="R90" t="n">
-        <v>6705228</v>
+        <v>6705395</v>
       </c>
       <c r="S90" t="n">
         <v>15</v>
@@ -10544,10 +10537,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>112254035</v>
+        <v>112249635</v>
       </c>
       <c r="B91" t="n">
-        <v>89553</v>
+        <v>56430</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10560,37 +10553,43 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Morkullberget, Dlr</t>
+          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>553389</v>
+        <v>553482</v>
       </c>
       <c r="R91" t="n">
-        <v>6704754</v>
+        <v>6705517</v>
       </c>
       <c r="S91" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T91" t="inlineStr">
         <is>
@@ -10617,9 +10616,24 @@
           <t>2023-09-22</t>
         </is>
       </c>
+      <c r="Z91" t="inlineStr">
+        <is>
+          <t>15:16</t>
+        </is>
+      </c>
       <c r="AA91" t="inlineStr">
         <is>
           <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB91" t="inlineStr">
+        <is>
+          <t>15:16</t>
+        </is>
+      </c>
+      <c r="AC91" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10634,19 +10648,19 @@
       <c r="AT91" t="inlineStr"/>
       <c r="AW91" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t>Philipp Weiss, fanny westling</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AY91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>112253985</v>
+        <v>112254001</v>
       </c>
       <c r="B92" t="n">
         <v>96735</v>
@@ -10679,29 +10693,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>553531</v>
+        <v>553497</v>
       </c>
       <c r="R92" t="n">
-        <v>6705240</v>
+        <v>6705035</v>
       </c>
       <c r="S92" t="n">
         <v>15</v>
@@ -10742,7 +10744,6 @@
       <c r="AE92" t="b">
         <v>0</v>
       </c>
-      <c r="AF92" t="inlineStr"/>
       <c r="AG92" t="b">
         <v>0</v>
       </c>
@@ -10761,7 +10762,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>112254026</v>
+        <v>112254037</v>
       </c>
       <c r="B93" t="n">
         <v>96735</v>
@@ -10801,10 +10802,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>553439</v>
+        <v>553386</v>
       </c>
       <c r="R93" t="n">
-        <v>6705097</v>
+        <v>6704753</v>
       </c>
       <c r="S93" t="n">
         <v>15</v>
@@ -10863,7 +10864,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>112253994</v>
+        <v>112254025</v>
       </c>
       <c r="B94" t="n">
         <v>96735</v>
@@ -10903,10 +10904,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>553513</v>
+        <v>553447</v>
       </c>
       <c r="R94" t="n">
-        <v>6705290</v>
+        <v>6704809</v>
       </c>
       <c r="S94" t="n">
         <v>15</v>
@@ -10965,10 +10966,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>112254020</v>
+        <v>112254004</v>
       </c>
       <c r="B95" t="n">
-        <v>89893</v>
+        <v>96735</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -10981,21 +10982,21 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>2062</v>
+        <v>220787</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11005,10 +11006,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>553455</v>
+        <v>553496</v>
       </c>
       <c r="R95" t="n">
-        <v>6705497</v>
+        <v>6705263</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11049,7 +11050,6 @@
       <c r="AE95" t="b">
         <v>0</v>
       </c>
-      <c r="AF95" t="inlineStr"/>
       <c r="AG95" t="b">
         <v>0</v>
       </c>
@@ -11068,10 +11068,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>112253999</v>
+        <v>112253987</v>
       </c>
       <c r="B96" t="n">
-        <v>56430</v>
+        <v>89553</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11084,42 +11084,34 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>553502</v>
+        <v>553525</v>
       </c>
       <c r="R96" t="n">
-        <v>6704909</v>
+        <v>6705418</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11152,11 +11144,6 @@
       <c r="AA96" t="inlineStr">
         <is>
           <t>2023-09-22</t>
-        </is>
-      </c>
-      <c r="AC96" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11183,7 +11170,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>112254048</v>
+        <v>112254016</v>
       </c>
       <c r="B97" t="n">
         <v>96735</v>
@@ -11223,10 +11210,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>553339</v>
+        <v>553476</v>
       </c>
       <c r="R97" t="n">
-        <v>6705001</v>
+        <v>6704913</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11285,7 +11272,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>112254004</v>
+        <v>112254021</v>
       </c>
       <c r="B98" t="n">
         <v>96735</v>
@@ -11318,17 +11305,33 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>553496</v>
+        <v>553450</v>
       </c>
       <c r="R98" t="n">
-        <v>6705263</v>
+        <v>6705143</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -11369,6 +11372,7 @@
       <c r="AE98" t="b">
         <v>0</v>
       </c>
+      <c r="AF98" t="inlineStr"/>
       <c r="AG98" t="b">
         <v>0</v>
       </c>
@@ -11387,10 +11391,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>112254044</v>
+        <v>112254020</v>
       </c>
       <c r="B99" t="n">
-        <v>96735</v>
+        <v>89893</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11403,46 +11407,34 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>220787</v>
+        <v>2062</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>553351</v>
+        <v>553455</v>
       </c>
       <c r="R99" t="n">
-        <v>6704849</v>
+        <v>6705497</v>
       </c>
       <c r="S99" t="n">
         <v>15</v>
@@ -11502,10 +11494,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>112254021</v>
+        <v>112253991</v>
       </c>
       <c r="B100" t="n">
-        <v>96735</v>
+        <v>8377</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11514,54 +11506,38 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>220787</v>
+        <v>106545</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>553450</v>
+        <v>553522</v>
       </c>
       <c r="R100" t="n">
-        <v>6705143</v>
+        <v>6705362</v>
       </c>
       <c r="S100" t="n">
         <v>15</v>
@@ -11602,7 +11578,6 @@
       <c r="AE100" t="b">
         <v>0</v>
       </c>
-      <c r="AF100" t="inlineStr"/>
       <c r="AG100" t="b">
         <v>0</v>
       </c>
@@ -11621,7 +11596,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>112254045</v>
+        <v>112254011</v>
       </c>
       <c r="B101" t="n">
         <v>96735</v>
@@ -11661,10 +11636,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>553351</v>
+        <v>553479</v>
       </c>
       <c r="R101" t="n">
-        <v>6704833</v>
+        <v>6704917</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -11723,7 +11698,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>112254011</v>
+        <v>112254039</v>
       </c>
       <c r="B102" t="n">
         <v>96735</v>
@@ -11763,10 +11738,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>553479</v>
+        <v>553361</v>
       </c>
       <c r="R102" t="n">
-        <v>6704917</v>
+        <v>6704802</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -11825,10 +11800,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>112253995</v>
+        <v>112254005</v>
       </c>
       <c r="B103" t="n">
-        <v>96735</v>
+        <v>89517</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -11837,50 +11812,38 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>553512</v>
+        <v>553494</v>
       </c>
       <c r="R103" t="n">
-        <v>6705338</v>
+        <v>6705017</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -11921,7 +11884,6 @@
       <c r="AE103" t="b">
         <v>0</v>
       </c>
-      <c r="AF103" t="inlineStr"/>
       <c r="AG103" t="b">
         <v>0</v>
       </c>
@@ -11940,10 +11902,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>112254043</v>
+        <v>112254019</v>
       </c>
       <c r="B104" t="n">
-        <v>96735</v>
+        <v>89072</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -11952,38 +11914,49 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>220787</v>
+        <v>256703</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr"/>
+          <t>R.H.Petersen</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>553352</v>
+        <v>553459</v>
       </c>
       <c r="R104" t="n">
-        <v>6704852</v>
+        <v>6705387</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12024,6 +11997,7 @@
       <c r="AE104" t="b">
         <v>0</v>
       </c>
+      <c r="AF104" t="inlineStr"/>
       <c r="AG104" t="b">
         <v>0</v>
       </c>
@@ -12042,10 +12016,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>112254032</v>
+        <v>112253993</v>
       </c>
       <c r="B105" t="n">
-        <v>89553</v>
+        <v>56430</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12058,34 +12032,42 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>553397</v>
+        <v>553514</v>
       </c>
       <c r="R105" t="n">
-        <v>6705068</v>
+        <v>6705442</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12118,6 +12100,11 @@
       <c r="AA105" t="inlineStr">
         <is>
           <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AC105" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12144,10 +12131,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>112254046</v>
+        <v>112253983</v>
       </c>
       <c r="B106" t="n">
-        <v>96735</v>
+        <v>89993</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12160,21 +12147,21 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12184,10 +12171,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>553347</v>
+        <v>553540</v>
       </c>
       <c r="R106" t="n">
-        <v>6704930</v>
+        <v>6705286</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12246,7 +12233,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>112254049</v>
+        <v>112254009</v>
       </c>
       <c r="B107" t="n">
         <v>96735</v>
@@ -12279,17 +12266,29 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
       <c r="P107" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>553333</v>
+        <v>553483</v>
       </c>
       <c r="R107" t="n">
-        <v>6704880</v>
+        <v>6704957</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -12330,6 +12329,7 @@
       <c r="AE107" t="b">
         <v>0</v>
       </c>
+      <c r="AF107" t="inlineStr"/>
       <c r="AG107" t="b">
         <v>0</v>
       </c>
@@ -12348,10 +12348,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>112326464</v>
+        <v>112248365</v>
       </c>
       <c r="B108" t="n">
-        <v>56430</v>
+        <v>96735</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -12360,45 +12360,42 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="inlineStr"/>
       <c r="P108" t="inlineStr">
         <is>
-          <t>Amshyttan, Dlr</t>
+          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>553445</v>
+        <v>553493</v>
       </c>
       <c r="R108" t="n">
-        <v>6705069</v>
+        <v>6705276</v>
       </c>
       <c r="S108" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T108" t="inlineStr">
         <is>
@@ -12425,14 +12422,19 @@
           <t>2023-09-22</t>
         </is>
       </c>
+      <c r="Z108" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
       <c r="AA108" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="AC108" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
+      <c r="AB108" t="inlineStr">
+        <is>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AD108" t="b">
@@ -12459,7 +12461,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>112248494</v>
+        <v>112326482</v>
       </c>
       <c r="B109" t="n">
         <v>96735</v>
@@ -12493,20 +12495,23 @@
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
       <c r="P109" t="inlineStr">
         <is>
-          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
+          <t>Amshyttan, Dlr</t>
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>553470</v>
+        <v>553444</v>
       </c>
       <c r="R109" t="n">
-        <v>6705210</v>
+        <v>6705045</v>
       </c>
       <c r="S109" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T109" t="inlineStr">
         <is>
@@ -12533,27 +12538,18 @@
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="Z109" t="inlineStr">
-        <is>
-          <t>13:47</t>
-        </is>
-      </c>
       <c r="AA109" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="AB109" t="inlineStr">
-        <is>
-          <t>13:47</t>
-        </is>
-      </c>
       <c r="AD109" t="b">
         <v>0</v>
       </c>
       <c r="AE109" t="b">
         <v>0</v>
       </c>
+      <c r="AF109" t="inlineStr"/>
       <c r="AG109" t="b">
         <v>0</v>
       </c>
@@ -12572,10 +12568,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>112249511</v>
+        <v>112326395</v>
       </c>
       <c r="B110" t="n">
-        <v>89993</v>
+        <v>96735</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -12588,38 +12584,41 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
-          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
+          <t>Amshyttan, Dlr</t>
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>553517</v>
+        <v>553409</v>
       </c>
       <c r="R110" t="n">
-        <v>6705424</v>
+        <v>6705092</v>
       </c>
       <c r="S110" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T110" t="inlineStr">
         <is>
@@ -12646,27 +12645,18 @@
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="Z110" t="inlineStr">
-        <is>
-          <t>15:08</t>
-        </is>
-      </c>
       <c r="AA110" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="AB110" t="inlineStr">
-        <is>
-          <t>15:08</t>
-        </is>
-      </c>
       <c r="AD110" t="b">
         <v>0</v>
       </c>
       <c r="AE110" t="b">
         <v>0</v>
       </c>
+      <c r="AF110" t="inlineStr"/>
       <c r="AG110" t="b">
         <v>0</v>
       </c>
@@ -12685,10 +12675,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>112248564</v>
+        <v>112337718</v>
       </c>
       <c r="B111" t="n">
-        <v>90128</v>
+        <v>89834</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -12697,44 +12687,42 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1179</v>
+        <v>658</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Gräddticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Perenniporia subacida</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Peck) Donk</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="N111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
-          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
+          <t>Flyttjesundet (Flyttjesundet), Dlr</t>
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>553474</v>
+        <v>553390</v>
       </c>
       <c r="R111" t="n">
-        <v>6705181</v>
+        <v>6704781</v>
       </c>
       <c r="S111" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T111" t="inlineStr">
         <is>
@@ -12758,27 +12746,22 @@
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>2023-09-22</t>
+          <t>2023-05-30</t>
         </is>
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>20:16</t>
         </is>
       </c>
       <c r="AA111" t="inlineStr">
         <is>
-          <t>2023-09-22</t>
+          <t>2023-05-30</t>
         </is>
       </c>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>13:47</t>
-        </is>
-      </c>
-      <c r="AC111" t="inlineStr">
-        <is>
-          <t>Resipunat på mossbevuxen granlåga</t>
+          <t>20:16</t>
         </is>
       </c>
       <c r="AD111" t="b">
@@ -12787,26 +12770,25 @@
       <c r="AE111" t="b">
         <v>0</v>
       </c>
-      <c r="AF111" t="inlineStr"/>
       <c r="AG111" t="b">
         <v>0</v>
       </c>
       <c r="AT111" t="inlineStr"/>
       <c r="AW111" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX111" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>112326395</v>
+        <v>112248494</v>
       </c>
       <c r="B112" t="n">
         <v>96735</v>
@@ -12840,23 +12822,20 @@
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
-          <t>Amshyttan, Dlr</t>
+          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>553409</v>
+        <v>553470</v>
       </c>
       <c r="R112" t="n">
-        <v>6705092</v>
+        <v>6705210</v>
       </c>
       <c r="S112" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T112" t="inlineStr">
         <is>
@@ -12883,18 +12862,27 @@
           <t>2023-09-22</t>
         </is>
       </c>
+      <c r="Z112" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
       <c r="AA112" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
       </c>
+      <c r="AB112" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
       <c r="AD112" t="b">
         <v>0</v>
       </c>
       <c r="AE112" t="b">
         <v>0</v>
       </c>
-      <c r="AF112" t="inlineStr"/>
       <c r="AG112" t="b">
         <v>0</v>
       </c>
@@ -12913,10 +12901,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>112326482</v>
+        <v>112248564</v>
       </c>
       <c r="B113" t="n">
-        <v>96735</v>
+        <v>90128</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -12929,41 +12917,40 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>220787</v>
+        <v>1179</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gräddticka</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Perenniporia subacida</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Peck) Donk</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
       <c r="N113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
         <is>
-          <t>Amshyttan, Dlr</t>
+          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>553444</v>
+        <v>553474</v>
       </c>
       <c r="R113" t="n">
-        <v>6705045</v>
+        <v>6705181</v>
       </c>
       <c r="S113" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T113" t="inlineStr">
         <is>
@@ -12990,9 +12977,24 @@
           <t>2023-09-22</t>
         </is>
       </c>
+      <c r="Z113" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
       <c r="AA113" t="inlineStr">
         <is>
           <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB113" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
+      <c r="AC113" t="inlineStr">
+        <is>
+          <t>Resipunat på mossbevuxen granlåga</t>
         </is>
       </c>
       <c r="AD113" t="b">
@@ -13127,7 +13129,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>112248387</v>
+        <v>112326491</v>
       </c>
       <c r="B115" t="n">
         <v>96735</v>
@@ -13161,20 +13163,23 @@
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
       <c r="P115" t="inlineStr">
         <is>
-          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
+          <t>Amshyttan, Dlr</t>
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>553501</v>
+        <v>553456</v>
       </c>
       <c r="R115" t="n">
-        <v>6705280</v>
+        <v>6704987</v>
       </c>
       <c r="S115" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T115" t="inlineStr">
         <is>
@@ -13201,27 +13206,18 @@
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="Z115" t="inlineStr">
-        <is>
-          <t>13:47</t>
-        </is>
-      </c>
       <c r="AA115" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="AB115" t="inlineStr">
-        <is>
-          <t>13:47</t>
-        </is>
-      </c>
       <c r="AD115" t="b">
         <v>0</v>
       </c>
       <c r="AE115" t="b">
         <v>0</v>
       </c>
+      <c r="AF115" t="inlineStr"/>
       <c r="AG115" t="b">
         <v>0</v>
       </c>
@@ -13240,10 +13236,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>112326437</v>
+        <v>112249511</v>
       </c>
       <c r="B116" t="n">
-        <v>96735</v>
+        <v>89993</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13256,41 +13252,38 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="N116" t="inlineStr"/>
       <c r="P116" t="inlineStr">
         <is>
-          <t>Amshyttan, Dlr</t>
+          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>553404</v>
+        <v>553517</v>
       </c>
       <c r="R116" t="n">
-        <v>6705030</v>
+        <v>6705424</v>
       </c>
       <c r="S116" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T116" t="inlineStr">
         <is>
@@ -13317,18 +13310,27 @@
           <t>2023-09-22</t>
         </is>
       </c>
+      <c r="Z116" t="inlineStr">
+        <is>
+          <t>15:08</t>
+        </is>
+      </c>
       <c r="AA116" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
       </c>
+      <c r="AB116" t="inlineStr">
+        <is>
+          <t>15:08</t>
+        </is>
+      </c>
       <c r="AD116" t="b">
         <v>0</v>
       </c>
       <c r="AE116" t="b">
         <v>0</v>
       </c>
-      <c r="AF116" t="inlineStr"/>
       <c r="AG116" t="b">
         <v>0</v>
       </c>
@@ -13347,10 +13349,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>112248365</v>
+        <v>112326464</v>
       </c>
       <c r="B117" t="n">
-        <v>96735</v>
+        <v>56430</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -13359,42 +13361,45 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
       <c r="P117" t="inlineStr">
         <is>
-          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
+          <t>Amshyttan, Dlr</t>
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>553493</v>
+        <v>553445</v>
       </c>
       <c r="R117" t="n">
-        <v>6705276</v>
+        <v>6705069</v>
       </c>
       <c r="S117" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T117" t="inlineStr">
         <is>
@@ -13421,19 +13426,14 @@
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="Z117" t="inlineStr">
-        <is>
-          <t>13:47</t>
-        </is>
-      </c>
       <c r="AA117" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="AB117" t="inlineStr">
-        <is>
-          <t>13:47</t>
+      <c r="AC117" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD117" t="b">
@@ -13460,10 +13460,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>112337718</v>
+        <v>112326437</v>
       </c>
       <c r="B118" t="n">
-        <v>89834</v>
+        <v>96735</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -13472,42 +13472,45 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
       <c r="P118" t="inlineStr">
         <is>
-          <t>Flyttjesundet (Flyttjesundet), Dlr</t>
+          <t>Amshyttan, Dlr</t>
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>553390</v>
+        <v>553404</v>
       </c>
       <c r="R118" t="n">
-        <v>6704781</v>
+        <v>6705030</v>
       </c>
       <c r="S118" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T118" t="inlineStr">
         <is>
@@ -13531,22 +13534,12 @@
       </c>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>2023-05-30</t>
-        </is>
-      </c>
-      <c r="Z118" t="inlineStr">
-        <is>
-          <t>20:16</t>
+          <t>2023-09-22</t>
         </is>
       </c>
       <c r="AA118" t="inlineStr">
         <is>
-          <t>2023-05-30</t>
-        </is>
-      </c>
-      <c r="AB118" t="inlineStr">
-        <is>
-          <t>20:16</t>
+          <t>2023-09-22</t>
         </is>
       </c>
       <c r="AD118" t="b">
@@ -13555,25 +13548,26 @@
       <c r="AE118" t="b">
         <v>0</v>
       </c>
+      <c r="AF118" t="inlineStr"/>
       <c r="AG118" t="b">
         <v>0</v>
       </c>
       <c r="AT118" t="inlineStr"/>
       <c r="AW118" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AX118" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AY118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>112326491</v>
+        <v>112248387</v>
       </c>
       <c r="B119" t="n">
         <v>96735</v>
@@ -13607,23 +13601,20 @@
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="N119" t="inlineStr"/>
       <c r="P119" t="inlineStr">
         <is>
-          <t>Amshyttan, Dlr</t>
+          <t>Morkullbergets naturreservat (Morkullbergets naturreservat), Dlr</t>
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>553456</v>
+        <v>553501</v>
       </c>
       <c r="R119" t="n">
-        <v>6704987</v>
+        <v>6705280</v>
       </c>
       <c r="S119" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T119" t="inlineStr">
         <is>
@@ -13650,18 +13641,27 @@
           <t>2023-09-22</t>
         </is>
       </c>
+      <c r="Z119" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
       <c r="AA119" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
       </c>
+      <c r="AB119" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
       <c r="AD119" t="b">
         <v>0</v>
       </c>
       <c r="AE119" t="b">
         <v>0</v>
       </c>
-      <c r="AF119" t="inlineStr"/>
       <c r="AG119" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 18040-2021.xlsx
+++ b/artfynd/A 18040-2021.xlsx
@@ -6386,10 +6386,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112254048</v>
+        <v>112253981</v>
       </c>
       <c r="B52" t="n">
-        <v>96735</v>
+        <v>89553</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6398,25 +6398,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6426,10 +6426,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>553339</v>
+        <v>553541</v>
       </c>
       <c r="R52" t="n">
-        <v>6705001</v>
+        <v>6705249</v>
       </c>
       <c r="S52" t="n">
         <v>15</v>
@@ -6488,10 +6488,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112253981</v>
+        <v>112253998</v>
       </c>
       <c r="B53" t="n">
-        <v>89553</v>
+        <v>96735</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6500,25 +6500,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6528,10 +6528,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>553541</v>
+        <v>553506</v>
       </c>
       <c r="R53" t="n">
-        <v>6705249</v>
+        <v>6705290</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -6590,7 +6590,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112253998</v>
+        <v>112254045</v>
       </c>
       <c r="B54" t="n">
         <v>96735</v>
@@ -6630,10 +6630,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>553506</v>
+        <v>553351</v>
       </c>
       <c r="R54" t="n">
-        <v>6705290</v>
+        <v>6704833</v>
       </c>
       <c r="S54" t="n">
         <v>15</v>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112254045</v>
+        <v>112254012</v>
       </c>
       <c r="B55" t="n">
         <v>96735</v>
@@ -6732,10 +6732,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>553351</v>
+        <v>553479</v>
       </c>
       <c r="R55" t="n">
-        <v>6704833</v>
+        <v>6705223</v>
       </c>
       <c r="S55" t="n">
         <v>15</v>
@@ -6794,7 +6794,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112254012</v>
+        <v>112253985</v>
       </c>
       <c r="B56" t="n">
         <v>96735</v>
@@ -6827,17 +6827,29 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>553479</v>
+        <v>553531</v>
       </c>
       <c r="R56" t="n">
-        <v>6705223</v>
+        <v>6705240</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -6878,6 +6890,7 @@
       <c r="AE56" t="b">
         <v>0</v>
       </c>
+      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
@@ -6896,7 +6909,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112253985</v>
+        <v>112254008</v>
       </c>
       <c r="B57" t="n">
         <v>96735</v>
@@ -6929,29 +6942,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>553531</v>
+        <v>553485</v>
       </c>
       <c r="R57" t="n">
-        <v>6705240</v>
+        <v>6704932</v>
       </c>
       <c r="S57" t="n">
         <v>15</v>
@@ -6992,7 +6993,6 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
-      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -7011,7 +7011,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112254008</v>
+        <v>112254052</v>
       </c>
       <c r="B58" t="n">
         <v>96735</v>
@@ -7044,17 +7044,29 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>553485</v>
+        <v>553330</v>
       </c>
       <c r="R58" t="n">
-        <v>6704932</v>
+        <v>6704878</v>
       </c>
       <c r="S58" t="n">
         <v>15</v>
@@ -7095,6 +7107,7 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
+      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -7113,7 +7126,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112254052</v>
+        <v>112254048</v>
       </c>
       <c r="B59" t="n">
         <v>96735</v>
@@ -7146,29 +7159,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>Morkullberget, Dlr</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>553330</v>
+        <v>553339</v>
       </c>
       <c r="R59" t="n">
-        <v>6704878</v>
+        <v>6705001</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7209,7 +7210,6 @@
       <c r="AE59" t="b">
         <v>0</v>
       </c>
-      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>
@@ -9810,7 +9810,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>112254014</v>
+        <v>112254002</v>
       </c>
       <c r="B84" t="n">
         <v>96735</v>
@@ -9850,10 +9850,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>553479</v>
+        <v>553497</v>
       </c>
       <c r="R84" t="n">
-        <v>6705174</v>
+        <v>6705280</v>
       </c>
       <c r="S84" t="n">
         <v>15</v>
@@ -9912,7 +9912,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>112253996</v>
+        <v>112254014</v>
       </c>
       <c r="B85" t="n">
         <v>96735</v>
@@ -9952,10 +9952,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>553511</v>
+        <v>553479</v>
       </c>
       <c r="R85" t="n">
-        <v>6705107</v>
+        <v>6705174</v>
       </c>
       <c r="S85" t="n">
         <v>15</v>
@@ -10014,10 +10014,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>112254007</v>
+        <v>112253996</v>
       </c>
       <c r="B86" t="n">
-        <v>90826</v>
+        <v>96735</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10026,25 +10026,25 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>4366</v>
+        <v>220787</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10054,10 +10054,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>553484</v>
+        <v>553511</v>
       </c>
       <c r="R86" t="n">
-        <v>6705509</v>
+        <v>6705107</v>
       </c>
       <c r="S86" t="n">
         <v>15</v>
@@ -10116,10 +10116,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>112254047</v>
+        <v>112254007</v>
       </c>
       <c r="B87" t="n">
-        <v>96735</v>
+        <v>90826</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10128,25 +10128,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>220787</v>
+        <v>4366</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10156,10 +10156,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>553343</v>
+        <v>553484</v>
       </c>
       <c r="R87" t="n">
-        <v>6704939</v>
+        <v>6705509</v>
       </c>
       <c r="S87" t="n">
         <v>15</v>
@@ -10218,7 +10218,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>112254002</v>
+        <v>112254047</v>
       </c>
       <c r="B88" t="n">
         <v>96735</v>
@@ -10258,10 +10258,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>553497</v>
+        <v>553343</v>
       </c>
       <c r="R88" t="n">
-        <v>6705280</v>
+        <v>6704939</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
